--- a/samples/Analysis.xlsx
+++ b/samples/Analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:T128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>dividendYieldAPI</t>
+          <t>yieldRatio</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,37 +486,52 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>yieldCounter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>yearTimePeriod</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>yieldCounter</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>yieldRatio</t>
+          <t>firstDividendDate</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>firstDividendDate</t>
+          <t>lastDividendDate</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>lastDividendDate</t>
+          <t>lastDividendValue</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>lastDividendValue</t>
+          <t>lastPriceWithDividend</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>lastPriceWithDividend</t>
+          <t>minDividend</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>maxDividend</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>avgDividend</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>stdDividend</t>
         </is>
       </c>
     </row>
@@ -547,16 +562,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8.19</v>
+        <v>8.16</v>
       </c>
       <c r="G2" t="n">
         <v>0.22</v>
       </c>
       <c r="H2" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I2" t="n">
-        <v>0.026800001</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
         <v>37</v>
@@ -567,24 +582,33 @@
       <c r="L2" t="n">
         <v>37</v>
       </c>
-      <c r="M2" t="n">
-        <v>100</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1985-06-17</t>
+        </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1985-06-17</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O2" t="n">
+        <v>0.22</v>
+      </c>
       <c r="P2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.22</v>
       </c>
-      <c r="Q2" t="n">
-        <v>7.399999618530273</v>
+      <c r="S2" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.052</v>
       </c>
     </row>
     <row r="3">
@@ -614,7 +638,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.98</v>
+        <v>4.02</v>
       </c>
       <c r="G3" t="n">
         <v>0.15</v>
@@ -623,7 +647,7 @@
         <v>3.85</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0385</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
         <v>27</v>
@@ -634,24 +658,33 @@
       <c r="L3" t="n">
         <v>27</v>
       </c>
-      <c r="M3" t="n">
-        <v>100</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1995-07-17</t>
+        </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1995-07-17</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0.15</v>
+      </c>
       <c r="P3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.15</v>
       </c>
-      <c r="Q3" t="n">
-        <v>3.949999809265137</v>
+      <c r="S3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.027</v>
       </c>
     </row>
     <row r="4">
@@ -681,16 +714,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>46.13</v>
+        <v>45.56</v>
       </c>
       <c r="G4" t="n">
         <v>1.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="I4" t="n">
-        <v>0.026500002</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
         <v>27</v>
@@ -701,24 +734,33 @@
       <c r="L4" t="n">
         <v>27</v>
       </c>
-      <c r="M4" t="n">
-        <v>100</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1995-05-18</t>
+        </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1995-05-18</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>0.6</v>
+      </c>
       <c r="P4" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q4" t="n">
-        <v>44.40000152587891</v>
+      <c r="S4" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.185</v>
       </c>
     </row>
     <row r="5">
@@ -748,7 +790,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>21.65</v>
+        <v>21.4</v>
       </c>
       <c r="G5" t="n">
         <v>0.28</v>
@@ -757,7 +799,7 @@
         <v>1.29</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0128999995</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
         <v>27</v>
@@ -768,24 +810,33 @@
       <c r="L5" t="n">
         <v>27</v>
       </c>
-      <c r="M5" t="n">
-        <v>100</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1995-11-16</t>
+        </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1995-11-16</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
           <t>2022-11-21</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>0.2793</v>
+      </c>
       <c r="P5" t="n">
-        <v>0.2793</v>
+        <v>21.371</v>
       </c>
       <c r="Q5" t="n">
-        <v>21.37069892883301</v>
+        <v>0.03</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.135</v>
       </c>
     </row>
     <row r="6">
@@ -815,7 +866,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="G6" t="n">
         <v>1.4</v>
@@ -824,7 +875,7 @@
         <v>4.23</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0423</v>
+        <v>100</v>
       </c>
       <c r="J6" t="n">
         <v>23</v>
@@ -835,24 +886,33 @@
       <c r="L6" t="n">
         <v>23</v>
       </c>
-      <c r="M6" t="n">
-        <v>100</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1999-05-24</t>
+        </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1999-05-24</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
       <c r="P6" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q6" t="n">
-        <v>30.10000038146973</v>
+      <c r="S6" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.392</v>
       </c>
     </row>
     <row r="7">
@@ -882,7 +942,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25.06</v>
+        <v>24.94</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -891,7 +951,7 @@
         <v>4.06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.040599998</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
         <v>23</v>
@@ -902,24 +962,33 @@
       <c r="L7" t="n">
         <v>23</v>
       </c>
-      <c r="M7" t="n">
-        <v>100</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1999-05-10</t>
+        </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1999-05-10</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
       <c r="P7" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.197901119162101e-05</v>
+      </c>
+      <c r="R7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
-        <v>27.23999977111816</v>
+      <c r="S7" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.276</v>
       </c>
     </row>
     <row r="8">
@@ -949,7 +1018,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>17.5</v>
+        <v>17.18</v>
       </c>
       <c r="G8" t="n">
         <v>0.6</v>
@@ -958,7 +1027,7 @@
         <v>3.92</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0392</v>
+        <v>100</v>
       </c>
       <c r="J8" t="n">
         <v>23</v>
@@ -969,24 +1038,33 @@
       <c r="L8" t="n">
         <v>23</v>
       </c>
-      <c r="M8" t="n">
-        <v>100</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1999-05-24</t>
+        </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1999-05-24</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
           <t>2022-05-30</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>0.6</v>
+      </c>
       <c r="P8" t="n">
-        <v>0.6</v>
+        <v>25.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.1500015258789</v>
+        <v>0.2324056045902689</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1016,7 +1094,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25.25</v>
+        <v>24.65</v>
       </c>
       <c r="G9" t="n">
         <v>0.33</v>
@@ -1025,7 +1103,7 @@
         <v>1.28</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0128</v>
+        <v>100</v>
       </c>
       <c r="J9" t="n">
         <v>23</v>
@@ -1036,24 +1114,33 @@
       <c r="L9" t="n">
         <v>23</v>
       </c>
-      <c r="M9" t="n">
-        <v>100</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1999-05-24</t>
+        </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1999-05-24</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>0.33</v>
+      </c>
       <c r="P9" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0387342674317114</v>
+      </c>
+      <c r="R9" t="n">
         <v>0.33</v>
       </c>
-      <c r="Q9" t="n">
-        <v>26.92000007629395</v>
+      <c r="S9" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1083,7 +1170,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.124</v>
+        <v>6.074</v>
       </c>
       <c r="G10" t="n">
         <v>0.4</v>
@@ -1092,7 +1179,7 @@
         <v>6.6</v>
       </c>
       <c r="I10" t="n">
-        <v>0.066</v>
+        <v>100</v>
       </c>
       <c r="J10" t="n">
         <v>22</v>
@@ -1103,24 +1190,33 @@
       <c r="L10" t="n">
         <v>22</v>
       </c>
-      <c r="M10" t="n">
-        <v>100</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2000-06-19</t>
+        </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2000-06-19</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
           <t>2023-07-24</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>0.4</v>
+      </c>
       <c r="P10" t="n">
-        <v>0.4</v>
+        <v>6.136</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.13599967956543</v>
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.378781</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.082</v>
       </c>
     </row>
     <row r="11">
@@ -1150,7 +1246,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.19</v>
+        <v>8.132</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -1159,7 +1255,7 @@
         <v>6.14</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0614</v>
+        <v>100</v>
       </c>
       <c r="J11" t="n">
         <v>22</v>
@@ -1170,24 +1266,33 @@
       <c r="L11" t="n">
         <v>22</v>
       </c>
-      <c r="M11" t="n">
-        <v>100</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2000-05-22</t>
+        </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2000-05-22</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>0.26</v>
+      </c>
       <c r="P11" t="n">
-        <v>0.26</v>
+        <v>8.358000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.357999801635742</v>
+        <v>0.02667</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.7533300000000001</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.119</v>
       </c>
     </row>
     <row r="12">
@@ -1217,7 +1322,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>28.04</v>
+        <v>27.98</v>
       </c>
       <c r="G12" t="n">
         <v>0.45</v>
@@ -1226,7 +1331,7 @@
         <v>1.59</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0159</v>
+        <v>100</v>
       </c>
       <c r="J12" t="n">
         <v>22</v>
@@ -1237,24 +1342,33 @@
       <c r="L12" t="n">
         <v>22</v>
       </c>
-      <c r="M12" t="n">
-        <v>100</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2000-07-10</t>
+        </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2000-07-10</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>0.45</v>
+      </c>
       <c r="P12" t="n">
-        <v>0.45</v>
+        <v>22.65</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.64999961853028</v>
+        <v>0.0001032913798178</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.176</v>
       </c>
     </row>
     <row r="13">
@@ -1284,16 +1398,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>14.17</v>
+        <v>14.128</v>
       </c>
       <c r="G13" t="n">
         <v>0.91</v>
       </c>
       <c r="H13" t="n">
-        <v>6.45</v>
+        <v>6.47</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0645</v>
+        <v>100</v>
       </c>
       <c r="J13" t="n">
         <v>21</v>
@@ -1304,24 +1418,33 @@
       <c r="L13" t="n">
         <v>21</v>
       </c>
-      <c r="M13" t="n">
-        <v>100</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2001-06-18</t>
+        </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2001-06-18</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>0.44</v>
+      </c>
       <c r="P13" t="n">
-        <v>0.44</v>
+        <v>13.23</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.22999954223633</v>
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.181</v>
       </c>
     </row>
     <row r="14">
@@ -1351,16 +1474,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>18.595</v>
+        <v>18.515</v>
       </c>
       <c r="G14" t="n">
         <v>1.16</v>
       </c>
       <c r="H14" t="n">
-        <v>6.27</v>
+        <v>6.25</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06270000000000001</v>
+        <v>100</v>
       </c>
       <c r="J14" t="n">
         <v>20</v>
@@ -1371,24 +1494,33 @@
       <c r="L14" t="n">
         <v>20</v>
       </c>
-      <c r="M14" t="n">
-        <v>100</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2002-05-20</t>
+        </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2002-05-20</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>1.16</v>
+      </c>
       <c r="P14" t="n">
+        <v>17.845</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.16</v>
       </c>
-      <c r="Q14" t="n">
-        <v>17.84499931335449</v>
+      <c r="S14" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.314</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1550,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.841</v>
+        <v>1.85</v>
       </c>
       <c r="G15" t="n">
         <v>0.11</v>
       </c>
       <c r="H15" t="n">
-        <v>6.18</v>
+        <v>6.01</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0618</v>
+        <v>100</v>
       </c>
       <c r="J15" t="n">
         <v>20</v>
@@ -1438,24 +1570,33 @@
       <c r="L15" t="n">
         <v>20</v>
       </c>
-      <c r="M15" t="n">
-        <v>100</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2002-06-24</t>
+        </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2002-06-24</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
           <t>2023-06-19</t>
         </is>
       </c>
+      <c r="O15" t="n">
+        <v>0.11</v>
+      </c>
       <c r="P15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="R15" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.75</v>
+      <c r="S15" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.026</v>
       </c>
     </row>
     <row r="16">
@@ -1485,7 +1626,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.7295</v>
+        <v>1.7255</v>
       </c>
       <c r="G16" t="n">
         <v>0.09</v>
@@ -1494,7 +1635,7 @@
         <v>5.24</v>
       </c>
       <c r="I16" t="n">
-        <v>0.052399997</v>
+        <v>100</v>
       </c>
       <c r="J16" t="n">
         <v>20</v>
@@ -1505,30 +1646,39 @@
       <c r="L16" t="n">
         <v>20</v>
       </c>
-      <c r="M16" t="n">
-        <v>100</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2002-06-24</t>
+        </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2002-06-24</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>0.09039999999999999</v>
+      </c>
       <c r="P16" t="n">
-        <v>0.09039999999999999</v>
+        <v>1.548</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.548099875450134</v>
+        <v>0.013</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>De'Longhi</t>
+          <t>De'longhi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1552,7 +1702,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>23.36</v>
+        <v>23.44</v>
       </c>
       <c r="G17" t="n">
         <v>0.48</v>
@@ -1561,7 +1711,7 @@
         <v>2.07</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0207</v>
+        <v>100</v>
       </c>
       <c r="J17" t="n">
         <v>20</v>
@@ -1572,24 +1722,33 @@
       <c r="L17" t="n">
         <v>20</v>
       </c>
-      <c r="M17" t="n">
-        <v>100</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2002-04-29</t>
+        </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2002-04-29</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O17" t="n">
+        <v>0.48</v>
+      </c>
       <c r="P17" t="n">
-        <v>0.48</v>
+        <v>20.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>20.34000015258789</v>
+        <v>0.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.301</v>
       </c>
     </row>
     <row r="18">
@@ -1619,16 +1778,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>11.985</v>
+        <v>11.8</v>
       </c>
       <c r="G18" t="n">
         <v>0.06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0052</v>
+        <v>100</v>
       </c>
       <c r="J18" t="n">
         <v>20</v>
@@ -1639,24 +1798,33 @@
       <c r="L18" t="n">
         <v>20</v>
       </c>
-      <c r="M18" t="n">
-        <v>100</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2002-05-06</t>
+        </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2002-05-06</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>0.06</v>
+      </c>
       <c r="P18" t="n">
+        <v>11.745</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>0.06</v>
       </c>
-      <c r="Q18" t="n">
-        <v>11.74499988555908</v>
+      <c r="S18" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.016</v>
       </c>
     </row>
     <row r="19">
@@ -1686,7 +1854,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>44.245</v>
+        <v>42.51</v>
       </c>
       <c r="G19" t="n">
         <v>0.22</v>
@@ -1695,7 +1863,7 @@
         <v>0.51</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0050999997</v>
+        <v>100</v>
       </c>
       <c r="J19" t="n">
         <v>20</v>
@@ -1706,24 +1874,33 @@
       <c r="L19" t="n">
         <v>20</v>
       </c>
-      <c r="M19" t="n">
-        <v>100</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2002-02-27</t>
+        </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2002-02-27</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
           <t>2023-06-26</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>0.12</v>
+      </c>
       <c r="P19" t="n">
-        <v>0.12</v>
+        <v>42.575</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.57500076293945</v>
+        <v>0.03</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.043</v>
       </c>
     </row>
     <row r="20">
@@ -1753,16 +1930,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>15.24</v>
+        <v>15.06</v>
       </c>
       <c r="G20" t="n">
         <v>0.48</v>
       </c>
       <c r="H20" t="n">
-        <v>3.15</v>
+        <v>3.18</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0315</v>
+        <v>100</v>
       </c>
       <c r="J20" t="n">
         <v>19</v>
@@ -1773,24 +1950,33 @@
       <c r="L20" t="n">
         <v>19</v>
       </c>
-      <c r="M20" t="n">
-        <v>100</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2003-06-18</t>
+        </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2003-06-18</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>0.34</v>
+      </c>
       <c r="P20" t="n">
+        <v>11.995</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R20" t="n">
         <v>0.34</v>
       </c>
-      <c r="Q20" t="n">
-        <v>11.99499988555908</v>
+      <c r="S20" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.078</v>
       </c>
     </row>
     <row r="21">
@@ -1820,7 +2006,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>89.7</v>
+        <v>88.05</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1829,7 +2015,7 @@
         <v>1.12</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0112</v>
+        <v>100</v>
       </c>
       <c r="J21" t="n">
         <v>19</v>
@@ -1840,24 +2026,33 @@
       <c r="L21" t="n">
         <v>19</v>
       </c>
-      <c r="M21" t="n">
-        <v>100</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2003-07-07</t>
+        </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2003-07-07</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
       <c r="P21" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" t="n">
-        <v>105.5999984741211</v>
+      <c r="S21" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.267</v>
       </c>
     </row>
     <row r="22">
@@ -1887,7 +2082,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.628</v>
+        <v>4.614</v>
       </c>
       <c r="G22" t="n">
         <v>0.33</v>
@@ -1896,7 +2091,7 @@
         <v>7.15</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07149999999999999</v>
+        <v>100</v>
       </c>
       <c r="J22" t="n">
         <v>18</v>
@@ -1907,24 +2102,33 @@
       <c r="L22" t="n">
         <v>18</v>
       </c>
-      <c r="M22" t="n">
-        <v>100</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2004-05-24</t>
+        </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2004-05-24</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
           <t>2023-06-19</t>
         </is>
       </c>
+      <c r="O22" t="n">
+        <v>0.2751</v>
+      </c>
       <c r="P22" t="n">
-        <v>0.2751</v>
+        <v>4.881</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.880900382995605</v>
+        <v>0.06</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.049</v>
       </c>
     </row>
     <row r="23">
@@ -1954,7 +2158,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>7.44</v>
+        <v>7.448</v>
       </c>
       <c r="G23" t="n">
         <v>0.42</v>
@@ -1963,7 +2167,7 @@
         <v>5.61</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0561</v>
+        <v>100</v>
       </c>
       <c r="J23" t="n">
         <v>18</v>
@@ -1974,24 +2178,33 @@
       <c r="L23" t="n">
         <v>18</v>
       </c>
-      <c r="M23" t="n">
-        <v>100</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2004-10-18</t>
+        </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2004-10-18</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
           <t>2023-06-19</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>0.2083</v>
+      </c>
       <c r="P23" t="n">
+        <v>7.846</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="R23" t="n">
         <v>0.2083</v>
       </c>
-      <c r="Q23" t="n">
-        <v>7.845699787139893</v>
+      <c r="S23" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.041</v>
       </c>
     </row>
     <row r="24">
@@ -2021,7 +2234,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.72</v>
+        <v>2.728</v>
       </c>
       <c r="G24" t="n">
         <v>0.12</v>
@@ -2030,7 +2243,7 @@
         <v>4.63</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0463</v>
+        <v>100</v>
       </c>
       <c r="J24" t="n">
         <v>18</v>
@@ -2041,24 +2254,33 @@
       <c r="L24" t="n">
         <v>18</v>
       </c>
-      <c r="M24" t="n">
-        <v>100</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2004-05-31</t>
+        </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2004-05-31</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
           <t>2023-06-19</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>0.125</v>
+      </c>
       <c r="P24" t="n">
+        <v>2.779</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.052342</v>
+      </c>
+      <c r="R24" t="n">
         <v>0.125</v>
       </c>
-      <c r="Q24" t="n">
-        <v>2.779000043869019</v>
+      <c r="S24" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.017</v>
       </c>
     </row>
     <row r="25">
@@ -2088,16 +2310,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>12.76</v>
+        <v>12.64</v>
       </c>
       <c r="G25" t="n">
         <v>0.38</v>
       </c>
       <c r="H25" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>0.030199999</v>
+        <v>100</v>
       </c>
       <c r="J25" t="n">
         <v>16</v>
@@ -2108,24 +2330,33 @@
       <c r="L25" t="n">
         <v>16</v>
       </c>
-      <c r="M25" t="n">
-        <v>100</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2006-05-15</t>
+        </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2006-05-15</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O25" t="n">
+        <v>0.38</v>
+      </c>
       <c r="P25" t="n">
-        <v>0.38</v>
+        <v>14.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.09999942779541</v>
+        <v>0.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.175</v>
       </c>
     </row>
     <row r="26">
@@ -2155,7 +2386,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>32.93</v>
+        <v>32.7</v>
       </c>
       <c r="G26" t="n">
         <v>2.45</v>
@@ -2164,7 +2395,7 @@
         <v>7.53</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07530000000000001</v>
+        <v>100</v>
       </c>
       <c r="J26" t="n">
         <v>15</v>
@@ -2175,24 +2406,33 @@
       <c r="L26" t="n">
         <v>15</v>
       </c>
-      <c r="M26" t="n">
-        <v>100</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2007-05-14</t>
+        </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2007-05-14</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>1.8</v>
+      </c>
       <c r="P26" t="n">
-        <v>1.8</v>
+        <v>29.82</v>
       </c>
       <c r="Q26" t="n">
-        <v>29.81999969482422</v>
+        <v>0.06</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.601</v>
       </c>
     </row>
     <row r="27">
@@ -2222,7 +2462,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="G27" t="n">
         <v>0.38</v>
@@ -2231,7 +2471,7 @@
         <v>4.22</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0422</v>
+        <v>100</v>
       </c>
       <c r="J27" t="n">
         <v>15</v>
@@ -2242,24 +2482,33 @@
       <c r="L27" t="n">
         <v>15</v>
       </c>
-      <c r="M27" t="n">
-        <v>100</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2007-05-07</t>
+        </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2007-05-07</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>0.38</v>
+      </c>
       <c r="P27" t="n">
-        <v>0.38</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.279999732971191</v>
+        <v>0.095</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.131</v>
       </c>
     </row>
     <row r="28">
@@ -2289,7 +2538,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15.4</v>
+        <v>15.18</v>
       </c>
       <c r="G28" t="n">
         <v>0.6</v>
@@ -2298,7 +2547,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04</v>
+        <v>100</v>
       </c>
       <c r="J28" t="n">
         <v>14</v>
@@ -2309,24 +2558,33 @@
       <c r="L28" t="n">
         <v>14</v>
       </c>
-      <c r="M28" t="n">
-        <v>100</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2008-05-19</t>
+        </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2008-05-19</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
           <t>2023-05-15</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>0.6</v>
+      </c>
       <c r="P28" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q28" t="n">
-        <v>16.13999938964844</v>
+      <c r="S28" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.126</v>
       </c>
     </row>
     <row r="29">
@@ -2356,16 +2614,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>36.61</v>
+        <v>36.12</v>
       </c>
       <c r="G29" t="n">
         <v>0.6</v>
       </c>
       <c r="H29" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0167</v>
+        <v>100</v>
       </c>
       <c r="J29" t="n">
         <v>14</v>
@@ -2376,24 +2634,33 @@
       <c r="L29" t="n">
         <v>14</v>
       </c>
-      <c r="M29" t="n">
-        <v>100</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2008-04-21</t>
+        </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2008-04-21</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>0.6</v>
+      </c>
       <c r="P29" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.160488</v>
+      </c>
+      <c r="R29" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q29" t="n">
-        <v>37.40000152587891</v>
+      <c r="S29" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="30">
@@ -2423,7 +2690,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>93.95999999999999</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="G30" t="n">
         <v>1.1</v>
@@ -2432,7 +2699,7 @@
         <v>1.18</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0117999995</v>
+        <v>100</v>
       </c>
       <c r="J30" t="n">
         <v>14</v>
@@ -2443,24 +2710,33 @@
       <c r="L30" t="n">
         <v>14</v>
       </c>
-      <c r="M30" t="n">
-        <v>100</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2008-07-14</t>
+        </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2008-07-14</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>1.1</v>
+      </c>
       <c r="P30" t="n">
-        <v>1.1</v>
+        <v>101.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>101.3000030517578</v>
+        <v>0.1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.414</v>
       </c>
     </row>
     <row r="31">
@@ -2490,7 +2766,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>24.45</v>
+        <v>24.55</v>
       </c>
       <c r="G31" t="n">
         <v>0.12</v>
@@ -2499,7 +2775,7 @@
         <v>0.48</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0047999998</v>
+        <v>100</v>
       </c>
       <c r="J31" t="n">
         <v>14</v>
@@ -2510,24 +2786,33 @@
       <c r="L31" t="n">
         <v>14</v>
       </c>
-      <c r="M31" t="n">
-        <v>100</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2008-05-05</t>
+        </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2008-05-05</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
           <t>2023-07-03</t>
         </is>
       </c>
+      <c r="O31" t="n">
+        <v>0.12</v>
+      </c>
       <c r="P31" t="n">
-        <v>0.12</v>
+        <v>30.73</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.72999954223633</v>
+        <v>0.01</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.118</v>
       </c>
     </row>
     <row r="32">
@@ -2557,7 +2842,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.419</v>
+        <v>0.426</v>
       </c>
       <c r="G32" t="n">
         <v>0.02</v>
@@ -2566,7 +2851,7 @@
         <v>5.37</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0537</v>
+        <v>100</v>
       </c>
       <c r="J32" t="n">
         <v>10</v>
@@ -2577,24 +2862,33 @@
       <c r="L32" t="n">
         <v>10</v>
       </c>
-      <c r="M32" t="n">
-        <v>100</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2012-06-18</t>
+        </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
           <t>2023-06-05</t>
         </is>
       </c>
+      <c r="O32" t="n">
+        <v>0.023</v>
+      </c>
       <c r="P32" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>0.023</v>
       </c>
-      <c r="Q32" t="n">
-        <v>0.4329999983310699</v>
+      <c r="S32" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.007</v>
       </c>
     </row>
     <row r="33">
@@ -2624,7 +2918,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>63.02</v>
+        <v>62.02</v>
       </c>
       <c r="G33" t="n">
         <v>1.12</v>
@@ -2633,7 +2927,7 @@
         <v>1.81</v>
       </c>
       <c r="I33" t="n">
-        <v>0.018099999</v>
+        <v>100</v>
       </c>
       <c r="J33" t="n">
         <v>8</v>
@@ -2644,24 +2938,33 @@
       <c r="L33" t="n">
         <v>8</v>
       </c>
-      <c r="M33" t="n">
-        <v>100</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2014-06-23</t>
+        </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2014-06-23</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>1.12</v>
+      </c>
       <c r="P33" t="n">
+        <v>63.24</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R33" t="n">
         <v>1.12</v>
       </c>
-      <c r="Q33" t="n">
-        <v>63.2400016784668</v>
+      <c r="S33" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.297</v>
       </c>
     </row>
     <row r="34">
@@ -2691,16 +2994,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.72</v>
+        <v>3.694</v>
       </c>
       <c r="G34" t="n">
         <v>0.22</v>
       </c>
       <c r="H34" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>0.060100004</v>
+        <v>100</v>
       </c>
       <c r="J34" t="n">
         <v>7</v>
@@ -2711,24 +3014,33 @@
       <c r="L34" t="n">
         <v>7</v>
       </c>
-      <c r="M34" t="n">
-        <v>100</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>0.22</v>
+      </c>
       <c r="P34" t="n">
-        <v>0.22</v>
+        <v>3.462</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.461999893188477</v>
+        <v>0.158239</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.039</v>
       </c>
     </row>
     <row r="35">
@@ -2758,16 +3070,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.08</v>
+        <v>5.12</v>
       </c>
       <c r="G35" t="n">
         <v>0.27</v>
       </c>
       <c r="H35" t="n">
-        <v>5.38</v>
+        <v>5.41</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0538</v>
+        <v>100</v>
       </c>
       <c r="J35" t="n">
         <v>7</v>
@@ -2778,24 +3090,33 @@
       <c r="L35" t="n">
         <v>7</v>
       </c>
-      <c r="M35" t="n">
-        <v>100</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
           <t>2023-05-29</t>
         </is>
       </c>
+      <c r="O35" t="n">
+        <v>0.2745</v>
+      </c>
       <c r="P35" t="n">
+        <v>5.236</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.1234</v>
+      </c>
+      <c r="R35" t="n">
         <v>0.2745</v>
       </c>
-      <c r="Q35" t="n">
-        <v>5.235500335693359</v>
+      <c r="S35" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.052</v>
       </c>
     </row>
     <row r="36">
@@ -2825,7 +3146,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12.615</v>
+        <v>12.595</v>
       </c>
       <c r="G36" t="n">
         <v>0.49</v>
@@ -2834,7 +3155,7 @@
         <v>3.91</v>
       </c>
       <c r="I36" t="n">
-        <v>0.039100002</v>
+        <v>100</v>
       </c>
       <c r="J36" t="n">
         <v>7</v>
@@ -2845,24 +3166,33 @@
       <c r="L36" t="n">
         <v>7</v>
       </c>
-      <c r="M36" t="n">
-        <v>100</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2015-04-27</t>
+        </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2015-04-27</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>0.49</v>
+      </c>
       <c r="P36" t="n">
-        <v>0.49</v>
+        <v>12.075</v>
       </c>
       <c r="Q36" t="n">
-        <v>12.07499980926514</v>
+        <v>0.2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="37">
@@ -2892,16 +3222,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10.125</v>
+        <v>10.055</v>
       </c>
       <c r="G37" t="n">
         <v>0.65</v>
       </c>
       <c r="H37" t="n">
-        <v>6.47</v>
+        <v>6.46</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06469999999999999</v>
+        <v>100</v>
       </c>
       <c r="J37" t="n">
         <v>6</v>
@@ -2912,24 +3242,33 @@
       <c r="L37" t="n">
         <v>6</v>
       </c>
-      <c r="M37" t="n">
-        <v>100</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2016-06-20</t>
+        </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
           <t>2023-06-19</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>0.44</v>
+      </c>
       <c r="P37" t="n">
-        <v>0.44</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.639999389648438</v>
+        <v>0.154</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="38">
@@ -2959,7 +3298,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.21</v>
+        <v>1.218</v>
       </c>
       <c r="G38" t="n">
         <v>0.07000000000000001</v>
@@ -2968,7 +3307,7 @@
         <v>5.57</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0557</v>
+        <v>100</v>
       </c>
       <c r="J38" t="n">
         <v>6</v>
@@ -2979,24 +3318,33 @@
       <c r="L38" t="n">
         <v>6</v>
       </c>
-      <c r="M38" t="n">
-        <v>100</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2016-05-09</t>
+        </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2016-05-09</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>0.065</v>
+      </c>
       <c r="P38" t="n">
-        <v>0.065</v>
+        <v>1.225</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.224999904632568</v>
+        <v>0.053</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.034</v>
       </c>
     </row>
     <row r="39">
@@ -3026,16 +3374,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>11.27</v>
+        <v>11.165</v>
       </c>
       <c r="G39" t="n">
         <v>0.35</v>
       </c>
       <c r="H39" t="n">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
       <c r="I39" t="n">
-        <v>0.031400003</v>
+        <v>100</v>
       </c>
       <c r="J39" t="n">
         <v>6</v>
@@ -3046,24 +3394,33 @@
       <c r="L39" t="n">
         <v>6</v>
       </c>
-      <c r="M39" t="n">
-        <v>100</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2016-05-23</t>
+        </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2016-05-23</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>0.3467</v>
+      </c>
       <c r="P39" t="n">
-        <v>0.3467</v>
+        <v>11.708</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.70830059051514</v>
+        <v>0.0945</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5936</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.146</v>
       </c>
     </row>
     <row r="40">
@@ -3093,7 +3450,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>26.15</v>
+        <v>26.1</v>
       </c>
       <c r="G40" t="n">
         <v>0.38</v>
@@ -3102,7 +3459,7 @@
         <v>1.44</v>
       </c>
       <c r="I40" t="n">
-        <v>0.014400001</v>
+        <v>100</v>
       </c>
       <c r="J40" t="n">
         <v>6</v>
@@ -3113,24 +3470,33 @@
       <c r="L40" t="n">
         <v>6</v>
       </c>
-      <c r="M40" t="n">
-        <v>100</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2016-05-09</t>
+        </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2016-05-09</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O40" t="n">
+        <v>0.38</v>
+      </c>
       <c r="P40" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R40" t="n">
         <v>0.38</v>
       </c>
-      <c r="Q40" t="n">
-        <v>28.81999969482422</v>
+      <c r="S40" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.064</v>
       </c>
     </row>
     <row r="41">
@@ -3160,7 +3526,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>312.79</v>
+        <v>308</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3169,7 +3535,7 @@
         <v>0.64</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0064</v>
+        <v>100</v>
       </c>
       <c r="J41" t="n">
         <v>6</v>
@@ -3180,24 +3546,33 @@
       <c r="L41" t="n">
         <v>6</v>
       </c>
-      <c r="M41" t="n">
-        <v>100</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2016-05-23</t>
+        </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2016-05-23</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>1.989</v>
+      </c>
       <c r="P41" t="n">
+        <v>276.041</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="R41" t="n">
         <v>1.989</v>
       </c>
-      <c r="Q41" t="n">
-        <v>276.0409851074219</v>
+      <c r="S41" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.465</v>
       </c>
     </row>
     <row r="42">
@@ -3227,7 +3602,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.155</v>
+        <v>5.14</v>
       </c>
       <c r="G42" t="n">
         <v>0.32</v>
@@ -3236,7 +3611,7 @@
         <v>6.2</v>
       </c>
       <c r="I42" t="n">
-        <v>0.062</v>
+        <v>100</v>
       </c>
       <c r="J42" t="n">
         <v>5</v>
@@ -3247,24 +3622,33 @@
       <c r="L42" t="n">
         <v>5</v>
       </c>
-      <c r="M42" t="n">
-        <v>100</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2017-05-22</t>
+        </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2017-05-22</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>0.317</v>
+      </c>
       <c r="P42" t="n">
+        <v>5.473</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R42" t="n">
         <v>0.317</v>
       </c>
-      <c r="Q42" t="n">
-        <v>5.473000049591064</v>
+      <c r="S42" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.044</v>
       </c>
     </row>
     <row r="43">
@@ -3294,7 +3678,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="G43" t="n">
         <v>0.3</v>
@@ -3303,7 +3687,7 @@
         <v>8.220000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>0.08220000600000001</v>
+        <v>100</v>
       </c>
       <c r="J43" t="n">
         <v>4</v>
@@ -3314,24 +3698,33 @@
       <c r="L43" t="n">
         <v>4</v>
       </c>
-      <c r="M43" t="n">
-        <v>100</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2018-05-07</t>
+        </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2018-05-07</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>0.4</v>
+      </c>
       <c r="P43" t="n">
-        <v>0.4</v>
+        <v>3.78</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.779999971389771</v>
+        <v>0.1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.045</v>
       </c>
     </row>
     <row r="44">
@@ -3370,7 +3763,7 @@
         <v>4.31</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0431</v>
+        <v>100</v>
       </c>
       <c r="J44" t="n">
         <v>4</v>
@@ -3381,24 +3774,33 @@
       <c r="L44" t="n">
         <v>4</v>
       </c>
-      <c r="M44" t="n">
-        <v>100</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2018-05-28</t>
+        </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2018-05-28</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>0.14</v>
+      </c>
       <c r="P44" t="n">
-        <v>0.14</v>
+        <v>2.98</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.979999780654907</v>
+        <v>0.09</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.024</v>
       </c>
     </row>
     <row r="45">
@@ -3428,7 +3830,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12.48</v>
+        <v>12.28</v>
       </c>
       <c r="G45" t="n">
         <v>0.35</v>
@@ -3437,7 +3839,7 @@
         <v>2.79</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0279</v>
+        <v>100</v>
       </c>
       <c r="J45" t="n">
         <v>4</v>
@@ -3448,24 +3850,33 @@
       <c r="L45" t="n">
         <v>4</v>
       </c>
-      <c r="M45" t="n">
-        <v>100</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2018-05-07</t>
+        </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2018-05-07</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>0.35</v>
+      </c>
       <c r="P45" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>0.35</v>
       </c>
-      <c r="Q45" t="n">
-        <v>12.25</v>
+      <c r="S45" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="46">
@@ -3495,16 +3906,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>17.28</v>
+        <v>17.18</v>
       </c>
       <c r="G46" t="n">
         <v>0.3</v>
       </c>
       <c r="H46" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0174</v>
+        <v>100</v>
       </c>
       <c r="J46" t="n">
         <v>4</v>
@@ -3515,24 +3926,33 @@
       <c r="L46" t="n">
         <v>4</v>
       </c>
-      <c r="M46" t="n">
-        <v>100</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2018-05-07</t>
+        </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2018-05-07</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>0.3</v>
+      </c>
       <c r="P46" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>0.3</v>
       </c>
-      <c r="Q46" t="n">
-        <v>19.85000038146973</v>
+      <c r="S46" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.114</v>
       </c>
     </row>
     <row r="47">
@@ -3562,16 +3982,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="G47" t="n">
         <v>0.8</v>
       </c>
       <c r="H47" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0147</v>
+        <v>100</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
@@ -3582,24 +4002,33 @@
       <c r="L47" t="n">
         <v>4</v>
       </c>
-      <c r="M47" t="n">
-        <v>100</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2018-05-07</t>
+        </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2018-05-07</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O47" t="n">
+        <v>0.8</v>
+      </c>
       <c r="P47" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R47" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q47" t="n">
-        <v>51.10000228881836</v>
+      <c r="S47" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.272</v>
       </c>
     </row>
     <row r="48">
@@ -3629,16 +4058,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>9.4</v>
+        <v>9.32</v>
       </c>
       <c r="G48" t="n">
         <v>0.5</v>
       </c>
       <c r="H48" t="n">
-        <v>5.47</v>
+        <v>5.34</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0547</v>
+        <v>100</v>
       </c>
       <c r="J48" t="n">
         <v>3</v>
@@ -3649,24 +4078,33 @@
       <c r="L48" t="n">
         <v>3</v>
       </c>
-      <c r="M48" t="n">
-        <v>100</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2019-05-03</t>
+        </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2019-05-03</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>0.5</v>
+      </c>
       <c r="P48" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R48" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q48" t="n">
-        <v>9.550000190734863</v>
+      <c r="S48" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.146</v>
       </c>
     </row>
     <row r="49">
@@ -3696,7 +4134,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.5</v>
+        <v>4.484</v>
       </c>
       <c r="G49" t="n">
         <v>0.22</v>
@@ -3705,7 +4143,7 @@
         <v>4.84</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0484</v>
+        <v>100</v>
       </c>
       <c r="J49" t="n">
         <v>3</v>
@@ -3716,24 +4154,33 @@
       <c r="L49" t="n">
         <v>3</v>
       </c>
-      <c r="M49" t="n">
-        <v>100</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2019-05-20</t>
+        </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2019-05-20</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
           <t>2023-07-24</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>0.218</v>
+      </c>
       <c r="P49" t="n">
+        <v>4.622</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R49" t="n">
         <v>0.218</v>
       </c>
-      <c r="Q49" t="n">
-        <v>4.622000217437744</v>
+      <c r="S49" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.051</v>
       </c>
     </row>
     <row r="50">
@@ -3763,7 +4210,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="G50" t="n">
         <v>0.1</v>
@@ -3772,7 +4219,7 @@
         <v>1.25</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0125</v>
+        <v>100</v>
       </c>
       <c r="J50" t="n">
         <v>3</v>
@@ -3783,24 +4230,33 @@
       <c r="L50" t="n">
         <v>3</v>
       </c>
-      <c r="M50" t="n">
-        <v>100</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2019-05-03</t>
+        </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2019-05-03</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P50" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Q50" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q50" t="n">
-        <v>7.300000190734863</v>
+      <c r="R50" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.026</v>
       </c>
     </row>
     <row r="51">
@@ -3830,7 +4286,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>25.2</v>
+        <v>24.85</v>
       </c>
       <c r="G51" t="n">
         <v>0.18</v>
@@ -3839,7 +4295,7 @@
         <v>0.7</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0069999998</v>
+        <v>100</v>
       </c>
       <c r="J51" t="n">
         <v>3</v>
@@ -3850,24 +4306,33 @@
       <c r="L51" t="n">
         <v>3</v>
       </c>
-      <c r="M51" t="n">
-        <v>100</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2019-06-24</t>
+        </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2019-06-24</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
           <t>2023-06-19</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>0.18</v>
+      </c>
       <c r="P51" t="n">
+        <v>27.97</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R51" t="n">
         <v>0.18</v>
       </c>
-      <c r="Q51" t="n">
-        <v>27.96999931335449</v>
+      <c r="S51" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.031</v>
       </c>
     </row>
     <row r="52">
@@ -3897,7 +4362,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="G52" t="n">
         <v>0.5</v>
@@ -3906,7 +4371,7 @@
         <v>2.07</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0207</v>
+        <v>100</v>
       </c>
       <c r="J52" t="n">
         <v>2</v>
@@ -3917,24 +4382,33 @@
       <c r="L52" t="n">
         <v>2</v>
       </c>
-      <c r="M52" t="n">
-        <v>100</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2020-05-18</t>
+        </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
           <t>2023-05-15</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>0.5</v>
+      </c>
       <c r="P52" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R52" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q52" t="n">
-        <v>21.14999961853028</v>
+      <c r="S52" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.044</v>
       </c>
     </row>
     <row r="53">
@@ -3964,16 +4438,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>36.55</v>
+        <v>36.5</v>
       </c>
       <c r="G53" t="n">
         <v>0.66</v>
       </c>
       <c r="H53" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I53" t="n">
-        <v>0.018</v>
+        <v>100</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3984,24 +4458,33 @@
       <c r="L53" t="n">
         <v>1</v>
       </c>
-      <c r="M53" t="n">
-        <v>100</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2021-04-26</t>
+        </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
           <t>2023-05-02</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>0.66</v>
+      </c>
       <c r="P53" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R53" t="n">
         <v>0.66</v>
       </c>
-      <c r="Q53" t="n">
-        <v>39.9900016784668</v>
+      <c r="S53" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.193</v>
       </c>
     </row>
     <row r="54">
@@ -4031,7 +4514,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>28.25</v>
+        <v>28.05</v>
       </c>
       <c r="G54" t="n">
         <v>0.55</v>
@@ -4040,35 +4523,44 @@
         <v>1.95</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0195</v>
+        <v>96.29629629629628</v>
       </c>
       <c r="J54" t="n">
         <v>14</v>
       </c>
       <c r="K54" t="n">
+        <v>26</v>
+      </c>
+      <c r="L54" t="n">
         <v>27</v>
       </c>
-      <c r="L54" t="n">
-        <v>26</v>
-      </c>
-      <c r="M54" t="n">
-        <v>96.29629629629628</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1995-06-15</t>
+        </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1995-06-15</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O54" t="n">
+        <v>0.55</v>
+      </c>
       <c r="P54" t="n">
-        <v>0.55</v>
+        <v>28</v>
       </c>
       <c r="Q54" t="n">
-        <v>27.99999809265137</v>
+        <v>0.0002133999907037</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.357</v>
       </c>
     </row>
     <row r="55">
@@ -4098,7 +4590,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>12.62</v>
+        <v>12.49</v>
       </c>
       <c r="G55" t="n">
         <v>0.28</v>
@@ -4107,35 +4599,44 @@
         <v>2.2</v>
       </c>
       <c r="I55" t="n">
-        <v>0.022</v>
+        <v>96.15384615384616</v>
       </c>
       <c r="J55" t="n">
         <v>23</v>
       </c>
       <c r="K55" t="n">
+        <v>25</v>
+      </c>
+      <c r="L55" t="n">
         <v>26</v>
       </c>
-      <c r="L55" t="n">
-        <v>25</v>
-      </c>
-      <c r="M55" t="n">
-        <v>96.15384615384616</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1996-05-06</t>
+        </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1996-05-06</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>0.28</v>
+      </c>
       <c r="P55" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
         <v>0.28</v>
       </c>
-      <c r="Q55" t="n">
-        <v>14.15999984741211</v>
+      <c r="S55" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4165,7 +4666,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.076</v>
+        <v>1.074</v>
       </c>
       <c r="G56" t="n">
         <v>0.07000000000000001</v>
@@ -4174,35 +4675,44 @@
         <v>6.17</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0617</v>
+        <v>95.65217391304348</v>
       </c>
       <c r="J56" t="n">
         <v>20</v>
       </c>
       <c r="K56" t="n">
+        <v>22</v>
+      </c>
+      <c r="L56" t="n">
         <v>23</v>
       </c>
-      <c r="L56" t="n">
-        <v>22</v>
-      </c>
-      <c r="M56" t="n">
-        <v>95.65217391304348</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1999-06-21</t>
+        </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1999-06-21</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
           <t>2023-06-05</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>0.065</v>
+      </c>
       <c r="P56" t="n">
-        <v>0.065</v>
+        <v>1.043</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.042999982833862</v>
+        <v>0.02</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.016</v>
       </c>
     </row>
     <row r="57">
@@ -4232,7 +4742,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>21.565</v>
+        <v>21.455</v>
       </c>
       <c r="G57" t="n">
         <v>0.99</v>
@@ -4241,35 +4751,44 @@
         <v>4.48</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0448</v>
+        <v>95.45454545454544</v>
       </c>
       <c r="J57" t="n">
         <v>11</v>
       </c>
       <c r="K57" t="n">
+        <v>21</v>
+      </c>
+      <c r="L57" t="n">
         <v>22</v>
       </c>
-      <c r="L57" t="n">
-        <v>21</v>
-      </c>
-      <c r="M57" t="n">
-        <v>95.45454545454544</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2000-05-22</t>
+        </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2000-05-22</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>0.9872</v>
+      </c>
       <c r="P57" t="n">
-        <v>0.9872</v>
+        <v>18.541</v>
       </c>
       <c r="Q57" t="n">
-        <v>18.54080009460449</v>
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6.933308</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.161</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.315</v>
       </c>
     </row>
     <row r="58">
@@ -4299,7 +4818,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5.37</v>
+        <v>5.295</v>
       </c>
       <c r="G58" t="n">
         <v>0.54</v>
@@ -4308,35 +4827,44 @@
         <v>10.37</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1037</v>
+        <v>95</v>
       </c>
       <c r="J58" t="n">
         <v>17</v>
       </c>
       <c r="K58" t="n">
+        <v>19</v>
+      </c>
+      <c r="L58" t="n">
         <v>20</v>
       </c>
-      <c r="L58" t="n">
-        <v>19</v>
-      </c>
-      <c r="M58" t="n">
-        <v>95</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2002-04-29</t>
+        </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2002-04-29</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O58" t="n">
+        <v>0.54</v>
+      </c>
       <c r="P58" t="n">
+        <v>8.135</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
         <v>0.54</v>
       </c>
-      <c r="Q58" t="n">
-        <v>8.135000228881836</v>
+      <c r="S58" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.157</v>
       </c>
     </row>
     <row r="59">
@@ -4366,7 +4894,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.458</v>
+        <v>2.448</v>
       </c>
       <c r="G59" t="n">
         <v>0.24</v>
@@ -4375,35 +4903,44 @@
         <v>9.890000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>0.098900005</v>
+        <v>95</v>
       </c>
       <c r="J59" t="n">
         <v>12</v>
       </c>
       <c r="K59" t="n">
+        <v>19</v>
+      </c>
+      <c r="L59" t="n">
         <v>20</v>
       </c>
-      <c r="L59" t="n">
-        <v>19</v>
-      </c>
-      <c r="M59" t="n">
-        <v>95</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2002-05-20</t>
+        </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2002-05-20</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>0.0901</v>
+      </c>
       <c r="P59" t="n">
-        <v>0.0901</v>
+        <v>2.326</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.3264000415802</v>
+        <v>0.0357</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.794376</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.164</v>
       </c>
     </row>
     <row r="60">
@@ -4433,44 +4970,53 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.652</v>
+        <v>1.638</v>
       </c>
       <c r="G60" t="n">
         <v>0.14</v>
       </c>
       <c r="H60" t="n">
-        <v>8.640000000000001</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0864</v>
+        <v>95</v>
       </c>
       <c r="J60" t="n">
         <v>17</v>
       </c>
       <c r="K60" t="n">
+        <v>19</v>
+      </c>
+      <c r="L60" t="n">
         <v>20</v>
       </c>
-      <c r="L60" t="n">
-        <v>19</v>
-      </c>
-      <c r="M60" t="n">
-        <v>95</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2002-02-11</t>
+        </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2002-02-11</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
           <t>2023-05-29</t>
         </is>
       </c>
+      <c r="O60" t="n">
+        <v>0.14</v>
+      </c>
       <c r="P60" t="n">
-        <v>0.14</v>
+        <v>1.74</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.740000009536743</v>
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="61">
@@ -4500,44 +5046,53 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4.234</v>
+        <v>4.238</v>
       </c>
       <c r="G61" t="n">
         <v>0.28</v>
       </c>
       <c r="H61" t="n">
-        <v>6.61</v>
+        <v>6.6</v>
       </c>
       <c r="I61" t="n">
-        <v>0.06610000000000001</v>
+        <v>95</v>
       </c>
       <c r="J61" t="n">
         <v>17</v>
       </c>
       <c r="K61" t="n">
+        <v>19</v>
+      </c>
+      <c r="L61" t="n">
         <v>20</v>
       </c>
-      <c r="L61" t="n">
-        <v>19</v>
-      </c>
-      <c r="M61" t="n">
-        <v>95</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2002-03-11</t>
+        </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2002-03-11</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>0.28</v>
+      </c>
       <c r="P61" t="n">
-        <v>0.28</v>
+        <v>3.892</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.891999959945679</v>
+        <v>0.026363</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.294034</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.078</v>
       </c>
     </row>
     <row r="62">
@@ -4567,44 +5122,53 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6.17</v>
+        <v>6.085</v>
       </c>
       <c r="G62" t="n">
         <v>0.3</v>
       </c>
       <c r="H62" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="I62" t="n">
-        <v>0.049000002</v>
+        <v>95</v>
       </c>
       <c r="J62" t="n">
         <v>11</v>
       </c>
       <c r="K62" t="n">
+        <v>19</v>
+      </c>
+      <c r="L62" t="n">
         <v>20</v>
       </c>
-      <c r="L62" t="n">
-        <v>19</v>
-      </c>
-      <c r="M62" t="n">
-        <v>95</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2002-05-27</t>
+        </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2002-05-27</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>0.3</v>
+      </c>
       <c r="P62" t="n">
-        <v>0.3</v>
+        <v>6.735</v>
       </c>
       <c r="Q62" t="n">
-        <v>6.735000133514404</v>
+        <v>0.0125</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.138</v>
       </c>
     </row>
     <row r="63">
@@ -4634,7 +5198,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>30.31</v>
+        <v>29.98</v>
       </c>
       <c r="G63" t="n">
         <v>0.29</v>
@@ -4643,35 +5207,44 @@
         <v>0.97</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0097</v>
+        <v>95</v>
       </c>
       <c r="J63" t="n">
         <v>12</v>
       </c>
       <c r="K63" t="n">
+        <v>19</v>
+      </c>
+      <c r="L63" t="n">
         <v>20</v>
       </c>
-      <c r="L63" t="n">
-        <v>19</v>
-      </c>
-      <c r="M63" t="n">
-        <v>95</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2002-05-06</t>
+        </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2002-05-06</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>0.29</v>
+      </c>
       <c r="P63" t="n">
-        <v>0.29</v>
+        <v>33.93</v>
       </c>
       <c r="Q63" t="n">
-        <v>33.93000030517578</v>
+        <v>0.005</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.094</v>
       </c>
     </row>
     <row r="64">
@@ -4701,44 +5274,53 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>11.92</v>
+        <v>11.82</v>
       </c>
       <c r="G64" t="n">
         <v>0.85</v>
       </c>
       <c r="H64" t="n">
-        <v>7.16</v>
+        <v>7.17</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0716</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="J64" t="n">
         <v>24</v>
       </c>
       <c r="K64" t="n">
+        <v>32</v>
+      </c>
+      <c r="L64" t="n">
         <v>34</v>
       </c>
-      <c r="L64" t="n">
-        <v>32</v>
-      </c>
-      <c r="M64" t="n">
-        <v>94.11764705882352</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1988-11-17</t>
+        </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1988-11-17</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
           <t>2022-11-21</t>
         </is>
       </c>
+      <c r="O64" t="n">
+        <v>0.75</v>
+      </c>
       <c r="P64" t="n">
+        <v>9.425000000000001</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
         <v>0.75</v>
       </c>
-      <c r="Q64" t="n">
-        <v>9.425000190734863</v>
+      <c r="S64" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.212</v>
       </c>
     </row>
     <row r="65">
@@ -4768,7 +5350,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.295</v>
+        <v>2.29</v>
       </c>
       <c r="G65" t="n">
         <v>0.3</v>
@@ -4777,35 +5359,44 @@
         <v>13.13</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1313</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="J65" t="n">
         <v>15</v>
       </c>
       <c r="K65" t="n">
+        <v>16</v>
+      </c>
+      <c r="L65" t="n">
         <v>17</v>
       </c>
-      <c r="L65" t="n">
-        <v>16</v>
-      </c>
-      <c r="M65" t="n">
-        <v>94.11764705882352</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2005-05-16</t>
+        </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2005-05-16</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>0.3</v>
+      </c>
       <c r="P65" t="n">
-        <v>0.3</v>
+        <v>2.59</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.589999914169312</v>
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.55139</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.154</v>
       </c>
     </row>
     <row r="66">
@@ -4835,7 +5426,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>20.77</v>
+        <v>20.67</v>
       </c>
       <c r="G66" t="n">
         <v>1.3</v>
@@ -4844,35 +5435,44 @@
         <v>6.3</v>
       </c>
       <c r="I66" t="n">
-        <v>0.063</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="J66" t="n">
         <v>15</v>
       </c>
       <c r="K66" t="n">
+        <v>16</v>
+      </c>
+      <c r="L66" t="n">
         <v>17</v>
       </c>
-      <c r="L66" t="n">
-        <v>16</v>
-      </c>
-      <c r="M66" t="n">
-        <v>94.11764705882352</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2005-05-20</t>
+        </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2005-05-20</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>1.3</v>
+      </c>
       <c r="P66" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.045774</v>
+      </c>
+      <c r="R66" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q66" t="n">
-        <v>19.15999984741211</v>
+      <c r="S66" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.458</v>
       </c>
     </row>
     <row r="67">
@@ -4902,44 +5502,53 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3.45</v>
+        <v>3.424</v>
       </c>
       <c r="G67" t="n">
         <v>0.25</v>
       </c>
       <c r="H67" t="n">
-        <v>7.2</v>
+        <v>7.26</v>
       </c>
       <c r="I67" t="n">
-        <v>0.07199999999999999</v>
+        <v>93.33333333333331</v>
       </c>
       <c r="J67" t="n">
         <v>7</v>
       </c>
       <c r="K67" t="n">
+        <v>14</v>
+      </c>
+      <c r="L67" t="n">
         <v>15</v>
       </c>
-      <c r="L67" t="n">
-        <v>14</v>
-      </c>
-      <c r="M67" t="n">
-        <v>93.33333333333331</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2007-05-21</t>
+        </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2007-05-21</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P67" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="R67" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q67" t="n">
-        <v>3.869999885559082</v>
+      <c r="S67" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="68">
@@ -4969,7 +5578,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.13</v>
+        <v>2.125</v>
       </c>
       <c r="G68" t="n">
         <v>0.13</v>
@@ -4978,35 +5587,44 @@
         <v>6.15</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0615</v>
+        <v>93.33333333333331</v>
       </c>
       <c r="J68" t="n">
         <v>9</v>
       </c>
       <c r="K68" t="n">
+        <v>14</v>
+      </c>
+      <c r="L68" t="n">
         <v>15</v>
       </c>
-      <c r="L68" t="n">
-        <v>14</v>
-      </c>
-      <c r="M68" t="n">
-        <v>93.33333333333331</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2007-05-14</t>
+        </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2007-05-14</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
           <t>2023-05-02</t>
         </is>
       </c>
+      <c r="O68" t="n">
+        <v>0.13</v>
+      </c>
       <c r="P68" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.2133</v>
+      </c>
+      <c r="S68" t="n">
         <v>0.13</v>
       </c>
-      <c r="Q68" t="n">
-        <v>2.779999971389771</v>
+      <c r="T68" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="69">
@@ -5036,44 +5654,53 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>15.4</v>
+        <v>15.35</v>
       </c>
       <c r="G69" t="n">
         <v>3.5</v>
       </c>
       <c r="H69" t="n">
-        <v>23.03</v>
+        <v>22.51</v>
       </c>
       <c r="I69" t="n">
-        <v>0.23030001</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="J69" t="n">
         <v>16</v>
       </c>
       <c r="K69" t="n">
+        <v>24</v>
+      </c>
+      <c r="L69" t="n">
         <v>26</v>
       </c>
-      <c r="L69" t="n">
-        <v>24</v>
-      </c>
-      <c r="M69" t="n">
-        <v>92.30769230769231</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1996-04-09</t>
+        </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1996-04-09</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>3.5</v>
+      </c>
       <c r="P69" t="n">
-        <v>3.5</v>
+        <v>19.9</v>
       </c>
       <c r="Q69" t="n">
-        <v>19.89999961853028</v>
+        <v>0.2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>32</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="T69" t="n">
+        <v>6.165</v>
       </c>
     </row>
     <row r="70">
@@ -5103,7 +5730,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>45.5</v>
+        <v>44.52</v>
       </c>
       <c r="G70" t="n">
         <v>0.3</v>
@@ -5112,35 +5739,44 @@
         <v>0.67</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0067000003</v>
+        <v>92</v>
       </c>
       <c r="J70" t="n">
         <v>11</v>
       </c>
       <c r="K70" t="n">
+        <v>23</v>
+      </c>
+      <c r="L70" t="n">
         <v>25</v>
       </c>
-      <c r="L70" t="n">
-        <v>23</v>
-      </c>
-      <c r="M70" t="n">
-        <v>92</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1997-05-19</t>
+        </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>1997-05-19</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>0.3</v>
+      </c>
       <c r="P70" t="n">
-        <v>0.3</v>
+        <v>53.84</v>
       </c>
       <c r="Q70" t="n">
-        <v>53.84000015258789</v>
+        <v>4.493175022078532e-05</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.132</v>
       </c>
     </row>
     <row r="71">
@@ -5170,44 +5806,53 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>7.6</v>
+        <v>7.57</v>
       </c>
       <c r="G71" t="n">
         <v>0.33</v>
       </c>
       <c r="H71" t="n">
-        <v>4.36</v>
+        <v>4.33</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0436</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="J71" t="n">
         <v>10</v>
       </c>
       <c r="K71" t="n">
+        <v>22</v>
+      </c>
+      <c r="L71" t="n">
         <v>24</v>
       </c>
-      <c r="L71" t="n">
-        <v>22</v>
-      </c>
-      <c r="M71" t="n">
-        <v>91.66666666666666</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1998-05-18</t>
+        </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1998-05-18</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
           <t>2023-05-15</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>0.33</v>
+      </c>
       <c r="P71" t="n">
-        <v>0.33</v>
+        <v>6.82</v>
       </c>
       <c r="Q71" t="n">
-        <v>6.820000171661377</v>
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="72">
@@ -5237,7 +5882,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>24.7</v>
+        <v>24.55</v>
       </c>
       <c r="G72" t="n">
         <v>0.7</v>
@@ -5246,35 +5891,44 @@
         <v>2.85</v>
       </c>
       <c r="I72" t="n">
-        <v>0.028499998</v>
+        <v>91.42857142857144</v>
       </c>
       <c r="J72" t="n">
         <v>21</v>
       </c>
       <c r="K72" t="n">
+        <v>32</v>
+      </c>
+      <c r="L72" t="n">
         <v>35</v>
       </c>
-      <c r="L72" t="n">
-        <v>32</v>
-      </c>
-      <c r="M72" t="n">
-        <v>91.42857142857144</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1987-10-16</t>
+        </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>1987-10-16</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>0.7</v>
+      </c>
       <c r="P72" t="n">
-        <v>0.7</v>
+        <v>25.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>25.39999961853028</v>
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.273</v>
       </c>
     </row>
     <row r="73">
@@ -5304,7 +5958,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>16.1</v>
+        <v>15.97</v>
       </c>
       <c r="G73" t="n">
         <v>2.35</v>
@@ -5313,35 +5967,44 @@
         <v>14.49</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1449</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="J73" t="n">
         <v>11</v>
       </c>
       <c r="K73" t="n">
+        <v>21</v>
+      </c>
+      <c r="L73" t="n">
         <v>23</v>
       </c>
-      <c r="L73" t="n">
-        <v>21</v>
-      </c>
-      <c r="M73" t="n">
-        <v>91.30434782608695</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>1999-05-10</t>
+        </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1999-05-10</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>0.4</v>
+      </c>
       <c r="P73" t="n">
-        <v>0.4</v>
+        <v>14.18</v>
       </c>
       <c r="Q73" t="n">
-        <v>14.18000030517578</v>
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.385</v>
       </c>
     </row>
     <row r="74">
@@ -5371,44 +6034,53 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10.48</v>
+        <v>10.53</v>
       </c>
       <c r="G74" t="n">
         <v>0.85</v>
       </c>
       <c r="H74" t="n">
-        <v>8.26</v>
+        <v>8.24</v>
       </c>
       <c r="I74" t="n">
-        <v>0.082600005</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="J74" t="n">
         <v>11</v>
       </c>
       <c r="K74" t="n">
+        <v>20</v>
+      </c>
+      <c r="L74" t="n">
         <v>22</v>
       </c>
-      <c r="L74" t="n">
-        <v>20</v>
-      </c>
-      <c r="M74" t="n">
-        <v>90.90909090909091</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2000-06-19</t>
+        </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2000-06-19</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
           <t>2023-06-19</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>0.85</v>
+      </c>
       <c r="P74" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.0001373775351578</v>
+      </c>
+      <c r="R74" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q74" t="n">
-        <v>13.08000087738037</v>
+      <c r="S74" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.263</v>
       </c>
     </row>
     <row r="75">
@@ -5438,7 +6110,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.298</v>
+        <v>2.294</v>
       </c>
       <c r="G75" t="n">
         <v>0.16</v>
@@ -5447,41 +6119,50 @@
         <v>6.97</v>
       </c>
       <c r="I75" t="n">
-        <v>0.069699995</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="J75" t="n">
         <v>10</v>
       </c>
       <c r="K75" t="n">
+        <v>20</v>
+      </c>
+      <c r="L75" t="n">
         <v>22</v>
       </c>
-      <c r="L75" t="n">
-        <v>20</v>
-      </c>
-      <c r="M75" t="n">
-        <v>90.90909090909091</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2000-05-22</t>
+        </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2000-05-22</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O75" t="n">
+        <v>0.16</v>
+      </c>
       <c r="P75" t="n">
-        <v>0.16</v>
+        <v>2.282</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.282000064849853</v>
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1.649817</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.525</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>El.En.</t>
+          <t>El.En</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5505,7 +6186,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="G76" t="n">
         <v>0.22</v>
@@ -5514,35 +6195,44 @@
         <v>2.08</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0208</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="J76" t="n">
         <v>9</v>
       </c>
       <c r="K76" t="n">
+        <v>19</v>
+      </c>
+      <c r="L76" t="n">
         <v>21</v>
       </c>
-      <c r="L76" t="n">
-        <v>19</v>
-      </c>
-      <c r="M76" t="n">
-        <v>90.47619047619048</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2001-07-23</t>
+        </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2001-07-23</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
           <t>2023-05-29</t>
         </is>
       </c>
+      <c r="O76" t="n">
+        <v>0.22</v>
+      </c>
       <c r="P76" t="n">
-        <v>0.22</v>
+        <v>10.86</v>
       </c>
       <c r="Q76" t="n">
-        <v>10.85999965667725</v>
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.113</v>
       </c>
     </row>
     <row r="77">
@@ -5572,7 +6262,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5.008</v>
+        <v>4.996</v>
       </c>
       <c r="G77" t="n">
         <v>0.37</v>
@@ -5581,35 +6271,44 @@
         <v>7.1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.07099999999999999</v>
+        <v>90.32258064516128</v>
       </c>
       <c r="J77" t="n">
         <v>17</v>
       </c>
       <c r="K77" t="n">
+        <v>28</v>
+      </c>
+      <c r="L77" t="n">
         <v>31</v>
       </c>
-      <c r="L77" t="n">
-        <v>28</v>
-      </c>
-      <c r="M77" t="n">
-        <v>90.32258064516128</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1991-07-17</t>
+        </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1991-07-17</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>0.37</v>
+      </c>
       <c r="P77" t="n">
-        <v>0.37</v>
+        <v>4.79</v>
       </c>
       <c r="Q77" t="n">
-        <v>4.789999485015869</v>
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>6.052755</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.211</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.191</v>
       </c>
     </row>
     <row r="78">
@@ -5639,44 +6338,53 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>103.8</v>
+        <v>102.8</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I78" t="n">
-        <v>0.009599999499999999</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="J78" t="n">
         <v>6</v>
       </c>
       <c r="K78" t="n">
+        <v>8</v>
+      </c>
+      <c r="L78" t="n">
         <v>9</v>
       </c>
-      <c r="L78" t="n">
-        <v>8</v>
-      </c>
-      <c r="M78" t="n">
-        <v>88.88888888888889</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2013-10-07</t>
+        </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2013-10-07</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
           <t>2022-09-19</t>
         </is>
       </c>
+      <c r="O78" t="n">
+        <v>0.9</v>
+      </c>
       <c r="P78" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R78" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q78" t="n">
-        <v>115.7999954223633</v>
+      <c r="S78" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.172</v>
       </c>
     </row>
     <row r="79">
@@ -5706,44 +6414,53 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>8.609999999999999</v>
+        <v>8.49</v>
       </c>
       <c r="G79" t="n">
         <v>0.13</v>
       </c>
       <c r="H79" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0152</v>
+        <v>87.5</v>
       </c>
       <c r="J79" t="n">
         <v>11</v>
       </c>
       <c r="K79" t="n">
+        <v>14</v>
+      </c>
+      <c r="L79" t="n">
         <v>16</v>
       </c>
-      <c r="L79" t="n">
-        <v>14</v>
-      </c>
-      <c r="M79" t="n">
-        <v>87.5</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2006-05-29</t>
+        </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2006-05-29</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
           <t>2023-06-19</t>
         </is>
       </c>
+      <c r="O79" t="n">
+        <v>0.13</v>
+      </c>
       <c r="P79" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="R79" t="n">
         <v>0.13</v>
       </c>
-      <c r="Q79" t="n">
-        <v>9.239999771118164</v>
+      <c r="S79" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.028</v>
       </c>
     </row>
     <row r="80">
@@ -5773,7 +6490,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>13.06</v>
+        <v>12.895</v>
       </c>
       <c r="G80" t="n">
         <v>0.4</v>
@@ -5782,35 +6499,44 @@
         <v>3.07</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0307</v>
+        <v>87.5</v>
       </c>
       <c r="J80" t="n">
         <v>5</v>
       </c>
       <c r="K80" t="n">
+        <v>7</v>
+      </c>
+      <c r="L80" t="n">
         <v>8</v>
       </c>
-      <c r="L80" t="n">
-        <v>7</v>
-      </c>
-      <c r="M80" t="n">
-        <v>87.5</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2014-04-22</t>
+        </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2014-04-22</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O80" t="n">
+        <v>0.396</v>
+      </c>
       <c r="P80" t="n">
+        <v>13.944</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="R80" t="n">
         <v>0.396</v>
       </c>
-      <c r="Q80" t="n">
-        <v>13.94400024414062</v>
+      <c r="S80" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.092</v>
       </c>
     </row>
     <row r="81">
@@ -5849,35 +6575,44 @@
         <v>6.9</v>
       </c>
       <c r="I81" t="n">
-        <v>0.06900000000000001</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="J81" t="n">
         <v>8</v>
       </c>
       <c r="K81" t="n">
+        <v>18</v>
+      </c>
+      <c r="L81" t="n">
         <v>21</v>
       </c>
-      <c r="L81" t="n">
-        <v>18</v>
-      </c>
-      <c r="M81" t="n">
-        <v>85.71428571428571</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2001-05-21</t>
+        </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2001-05-21</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
           <t>2023-05-02</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>0.014</v>
+      </c>
       <c r="P81" t="n">
-        <v>0.014</v>
+        <v>0.217</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.2170000076293945</v>
+        <v>0.001</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.087342</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.029</v>
       </c>
     </row>
     <row r="82">
@@ -5907,44 +6642,53 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G82" t="n">
         <v>0.1</v>
       </c>
       <c r="H82" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0478</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="J82" t="n">
         <v>11</v>
       </c>
       <c r="K82" t="n">
+        <v>12</v>
+      </c>
+      <c r="L82" t="n">
         <v>14</v>
       </c>
-      <c r="L82" t="n">
-        <v>12</v>
-      </c>
-      <c r="M82" t="n">
-        <v>85.71428571428571</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2008-07-28</t>
+        </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2008-07-28</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
           <t>2023-07-31</t>
         </is>
       </c>
+      <c r="O82" t="n">
+        <v>0.104115</v>
+      </c>
       <c r="P82" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R82" t="n">
         <v>0.104115</v>
       </c>
-      <c r="Q82" t="n">
-        <v>2.085885047912598</v>
+      <c r="S82" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.027</v>
       </c>
     </row>
     <row r="83">
@@ -5974,44 +6718,53 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>17.61</v>
+        <v>17.3</v>
       </c>
       <c r="G83" t="n">
         <v>0.51</v>
       </c>
       <c r="H83" t="n">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0294</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="J83" t="n">
         <v>4</v>
       </c>
       <c r="K83" t="n">
+        <v>6</v>
+      </c>
+      <c r="L83" t="n">
         <v>7</v>
       </c>
-      <c r="L83" t="n">
-        <v>6</v>
-      </c>
-      <c r="M83" t="n">
-        <v>85.71428571428571</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2015-06-15</t>
+        </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2015-06-15</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
           <t>2023-06-05</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>0.51</v>
+      </c>
       <c r="P83" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.046577</v>
+      </c>
+      <c r="R83" t="n">
         <v>0.51</v>
       </c>
-      <c r="Q83" t="n">
-        <v>17.55999946594238</v>
+      <c r="S83" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.153</v>
       </c>
     </row>
     <row r="84">
@@ -6041,7 +6794,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>8.470000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G84" t="n">
         <v>0.12</v>
@@ -6050,35 +6803,44 @@
         <v>1.44</v>
       </c>
       <c r="I84" t="n">
-        <v>0.014400001</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="J84" t="n">
         <v>4</v>
       </c>
       <c r="K84" t="n">
+        <v>6</v>
+      </c>
+      <c r="L84" t="n">
         <v>7</v>
       </c>
-      <c r="L84" t="n">
-        <v>6</v>
-      </c>
-      <c r="M84" t="n">
-        <v>85.71428571428571</v>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2015-06-01</t>
+        </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2015-06-01</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>0.12</v>
+      </c>
       <c r="P84" t="n">
-        <v>0.12</v>
+        <v>7.38</v>
       </c>
       <c r="Q84" t="n">
-        <v>7.380000114440918</v>
+        <v>0.08</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1.913971</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.638</v>
       </c>
     </row>
     <row r="85">
@@ -6108,44 +6870,53 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.729</v>
+        <v>2.717</v>
       </c>
       <c r="G85" t="n">
         <v>0.12</v>
       </c>
       <c r="H85" t="n">
-        <v>4.34</v>
+        <v>4.37</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0434</v>
+        <v>85</v>
       </c>
       <c r="J85" t="n">
         <v>10</v>
       </c>
       <c r="K85" t="n">
+        <v>17</v>
+      </c>
+      <c r="L85" t="n">
         <v>20</v>
       </c>
-      <c r="L85" t="n">
-        <v>17</v>
-      </c>
-      <c r="M85" t="n">
-        <v>85</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2002-05-27</t>
+        </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2002-05-27</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>0.24</v>
+      </c>
       <c r="P85" t="n">
-        <v>0.24</v>
+        <v>2.58</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.580000162124634</v>
+        <v>0.013538</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1.81883</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -6184,35 +6955,44 @@
         <v>4.17</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0417</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="J86" t="n">
         <v>10</v>
       </c>
       <c r="K86" t="n">
+        <v>11</v>
+      </c>
+      <c r="L86" t="n">
         <v>13</v>
       </c>
-      <c r="L86" t="n">
-        <v>11</v>
-      </c>
-      <c r="M86" t="n">
-        <v>84.61538461538461</v>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2009-06-01</t>
+        </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2009-06-01</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>0.13</v>
+      </c>
       <c r="P86" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="R86" t="n">
         <v>0.13</v>
       </c>
-      <c r="Q86" t="n">
-        <v>3.070000171661377</v>
+      <c r="S86" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.037</v>
       </c>
     </row>
     <row r="87">
@@ -6242,44 +7022,53 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>14.42</v>
+        <v>14.27</v>
       </c>
       <c r="G87" t="n">
         <v>0.28</v>
       </c>
       <c r="H87" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="I87" t="n">
-        <v>0.0194</v>
+        <v>80</v>
       </c>
       <c r="J87" t="n">
         <v>7</v>
       </c>
       <c r="K87" t="n">
+        <v>8</v>
+      </c>
+      <c r="L87" t="n">
         <v>10</v>
       </c>
-      <c r="L87" t="n">
-        <v>8</v>
-      </c>
-      <c r="M87" t="n">
-        <v>80</v>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2012-05-21</t>
+        </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2012-05-21</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>0.28</v>
+      </c>
       <c r="P87" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="Q87" t="n">
         <v>0.28</v>
       </c>
-      <c r="Q87" t="n">
-        <v>14.85999965667725</v>
+      <c r="R87" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.066</v>
       </c>
     </row>
     <row r="88">
@@ -6309,7 +7098,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3.674</v>
+        <v>3.654</v>
       </c>
       <c r="G88" t="n">
         <v>0.2</v>
@@ -6318,35 +7107,44 @@
         <v>5.38</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0538</v>
+        <v>80</v>
       </c>
       <c r="J88" t="n">
         <v>3</v>
       </c>
       <c r="K88" t="n">
+        <v>4</v>
+      </c>
+      <c r="L88" t="n">
         <v>5</v>
       </c>
-      <c r="L88" t="n">
-        <v>4</v>
-      </c>
-      <c r="M88" t="n">
-        <v>80</v>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2017-05-22</t>
+        </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2017-05-22</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
           <t>2022-10-24</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.1081</v>
+      </c>
       <c r="P88" t="n">
+        <v>3.574</v>
+      </c>
+      <c r="Q88" t="n">
         <v>0.1081</v>
       </c>
-      <c r="Q88" t="n">
-        <v>3.573899984359741</v>
+      <c r="R88" t="n">
+        <v>0.2094</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="89">
@@ -6376,44 +7174,53 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>9.85</v>
+        <v>9.795</v>
       </c>
       <c r="G89" t="n">
         <v>0.49</v>
       </c>
       <c r="H89" t="n">
-        <v>4.91</v>
+        <v>4.94</v>
       </c>
       <c r="I89" t="n">
-        <v>0.049099997</v>
+        <v>80</v>
       </c>
       <c r="J89" t="n">
         <v>2</v>
       </c>
       <c r="K89" t="n">
+        <v>4</v>
+      </c>
+      <c r="L89" t="n">
         <v>5</v>
       </c>
-      <c r="L89" t="n">
-        <v>4</v>
-      </c>
-      <c r="M89" t="n">
-        <v>80</v>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2017-09-25</t>
+        </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2017-09-25</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
           <t>2023-06-26</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>0.49</v>
+      </c>
       <c r="P89" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="Q89" t="n">
         <v>0.49</v>
       </c>
-      <c r="Q89" t="n">
-        <v>9.930000305175779</v>
+      <c r="R89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.717</v>
       </c>
     </row>
     <row r="90">
@@ -6443,7 +7250,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>10.08</v>
+        <v>10.02</v>
       </c>
       <c r="G90" t="n">
         <v>0.5</v>
@@ -6452,35 +7259,44 @@
         <v>4.81</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0481</v>
+        <v>80</v>
       </c>
       <c r="J90" t="n">
         <v>2</v>
       </c>
       <c r="K90" t="n">
+        <v>4</v>
+      </c>
+      <c r="L90" t="n">
         <v>5</v>
       </c>
-      <c r="L90" t="n">
-        <v>4</v>
-      </c>
-      <c r="M90" t="n">
-        <v>80</v>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2017-05-08</t>
+        </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2017-05-08</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
           <t>2023-05-15</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>0.5</v>
+      </c>
       <c r="P90" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R90" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q90" t="n">
-        <v>11.47999954223633</v>
+      <c r="S90" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.105</v>
       </c>
     </row>
     <row r="91">
@@ -6510,44 +7326,53 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>7.83</v>
+        <v>7.77</v>
       </c>
       <c r="G91" t="n">
         <v>0.25</v>
       </c>
       <c r="H91" t="n">
-        <v>3.14</v>
+        <v>3.23</v>
       </c>
       <c r="I91" t="n">
-        <v>0.031400003</v>
+        <v>80</v>
       </c>
       <c r="J91" t="n">
         <v>2</v>
       </c>
       <c r="K91" t="n">
+        <v>4</v>
+      </c>
+      <c r="L91" t="n">
         <v>5</v>
       </c>
-      <c r="L91" t="n">
-        <v>4</v>
-      </c>
-      <c r="M91" t="n">
-        <v>80</v>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2017-05-15</t>
+        </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2017-05-15</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>0.25</v>
+      </c>
       <c r="P91" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="R91" t="n">
         <v>0.25</v>
       </c>
-      <c r="Q91" t="n">
-        <v>8.420000076293945</v>
+      <c r="S91" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="92">
@@ -6577,44 +7402,53 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.552</v>
+        <v>3.56</v>
       </c>
       <c r="G92" t="n">
         <v>0.12</v>
       </c>
       <c r="H92" t="n">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0349</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="J92" t="n">
         <v>6</v>
       </c>
       <c r="K92" t="n">
+        <v>11</v>
+      </c>
+      <c r="L92" t="n">
         <v>14</v>
       </c>
-      <c r="L92" t="n">
-        <v>11</v>
-      </c>
-      <c r="M92" t="n">
-        <v>78.57142857142857</v>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>2008-05-19</t>
+        </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2008-05-19</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>0.124</v>
+      </c>
       <c r="P92" t="n">
-        <v>0.124</v>
+        <v>3.758</v>
       </c>
       <c r="Q92" t="n">
-        <v>3.757999897003174</v>
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.283881</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -6644,44 +7478,53 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>70.95</v>
+        <v>70.45</v>
       </c>
       <c r="G93" t="n">
         <v>0.65</v>
       </c>
       <c r="H93" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I93" t="n">
-        <v>0.0092</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="J93" t="n">
         <v>6</v>
       </c>
       <c r="K93" t="n">
+        <v>7</v>
+      </c>
+      <c r="L93" t="n">
         <v>9</v>
       </c>
-      <c r="L93" t="n">
-        <v>7</v>
-      </c>
-      <c r="M93" t="n">
-        <v>77.77777777777779</v>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2013-05-20</t>
+        </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2013-05-20</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>0.65</v>
+      </c>
       <c r="P93" t="n">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R93" t="n">
         <v>0.65</v>
       </c>
-      <c r="Q93" t="n">
-        <v>81.34999847412109</v>
+      <c r="S93" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.187</v>
       </c>
     </row>
     <row r="94">
@@ -6711,7 +7554,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>28</v>
+        <v>27.45</v>
       </c>
       <c r="G94" t="n">
         <v>0.65</v>
@@ -6720,35 +7563,44 @@
         <v>2.44</v>
       </c>
       <c r="I94" t="n">
-        <v>0.024400001</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="J94" t="n">
         <v>12</v>
       </c>
       <c r="K94" t="n">
+        <v>13</v>
+      </c>
+      <c r="L94" t="n">
         <v>17</v>
       </c>
-      <c r="L94" t="n">
-        <v>13</v>
-      </c>
-      <c r="M94" t="n">
-        <v>76.47058823529412</v>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2005-05-16</t>
+        </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2005-05-16</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>0.65</v>
+      </c>
       <c r="P94" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
         <v>0.65</v>
       </c>
-      <c r="Q94" t="n">
-        <v>28.55000114440918</v>
+      <c r="S94" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.169</v>
       </c>
     </row>
     <row r="95">
@@ -6778,44 +7630,53 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.6675</v>
+        <v>0.6615</v>
       </c>
       <c r="G95" t="n">
         <v>0.05</v>
       </c>
       <c r="H95" t="n">
-        <v>7.44</v>
+        <v>7.42</v>
       </c>
       <c r="I95" t="n">
-        <v>0.07439999999999999</v>
+        <v>76</v>
       </c>
       <c r="J95" t="n">
         <v>15</v>
       </c>
       <c r="K95" t="n">
+        <v>19</v>
+      </c>
+      <c r="L95" t="n">
         <v>25</v>
       </c>
-      <c r="L95" t="n">
-        <v>19</v>
-      </c>
-      <c r="M95" t="n">
-        <v>76</v>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1997-05-19</t>
+        </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>1997-05-19</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
           <t>2023-07-24</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>0.05</v>
+      </c>
       <c r="P95" t="n">
-        <v>0.05</v>
+        <v>0.661</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.6614999771118164</v>
+        <v>0.02</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="96">
@@ -6845,44 +7706,53 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4.395</v>
+        <v>4.46</v>
       </c>
       <c r="G96" t="n">
         <v>0.6</v>
       </c>
       <c r="H96" t="n">
-        <v>13.3</v>
+        <v>12.89</v>
       </c>
       <c r="I96" t="n">
-        <v>0.133</v>
+        <v>75</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="n">
+        <v>3</v>
+      </c>
+      <c r="L96" t="n">
         <v>4</v>
       </c>
-      <c r="L96" t="n">
-        <v>3</v>
-      </c>
-      <c r="M96" t="n">
-        <v>75</v>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2018-05-21</t>
+        </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2018-05-21</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>0.6</v>
+      </c>
       <c r="P96" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.2616</v>
+      </c>
+      <c r="R96" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q96" t="n">
-        <v>5.769999504089356</v>
+      <c r="S96" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.113</v>
       </c>
     </row>
     <row r="97">
@@ -6912,7 +7782,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>9.699999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="G97" t="n">
         <v>0.86</v>
@@ -6921,35 +7791,44 @@
         <v>8.83</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0883</v>
+        <v>75</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
       </c>
       <c r="K97" t="n">
+        <v>3</v>
+      </c>
+      <c r="L97" t="n">
         <v>4</v>
       </c>
-      <c r="L97" t="n">
-        <v>3</v>
-      </c>
-      <c r="M97" t="n">
-        <v>75</v>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2018-04-09</t>
+        </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2018-04-09</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
           <t>2023-08-11</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>0.5669999999999999</v>
+      </c>
       <c r="P97" t="n">
-        <v>0.5669999999999999</v>
+        <v>9.538</v>
       </c>
       <c r="Q97" t="n">
-        <v>9.53800106048584</v>
+        <v>0.017495</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.8946</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.289</v>
       </c>
     </row>
     <row r="98">
@@ -6979,7 +7858,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>8.640000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="G98" t="n">
         <v>0.4</v>
@@ -6988,35 +7867,44 @@
         <v>4.6</v>
       </c>
       <c r="I98" t="n">
-        <v>0.046</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="J98" t="n">
         <v>10</v>
       </c>
       <c r="K98" t="n">
+        <v>17</v>
+      </c>
+      <c r="L98" t="n">
         <v>23</v>
       </c>
-      <c r="L98" t="n">
-        <v>17</v>
-      </c>
-      <c r="M98" t="n">
-        <v>73.91304347826086</v>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1999-05-10</t>
+        </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>1999-05-10</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>0.4</v>
+      </c>
       <c r="P98" t="n">
-        <v>0.4</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="Q98" t="n">
-        <v>9.620000839233398</v>
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.206</v>
       </c>
     </row>
     <row r="99">
@@ -7046,7 +7934,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.657</v>
+        <v>1.647</v>
       </c>
       <c r="G99" t="n">
         <v>0.06</v>
@@ -7055,35 +7943,44 @@
         <v>3.38</v>
       </c>
       <c r="I99" t="n">
-        <v>0.033800002</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="J99" t="n">
         <v>7</v>
       </c>
       <c r="K99" t="n">
+        <v>16</v>
+      </c>
+      <c r="L99" t="n">
         <v>22</v>
       </c>
-      <c r="L99" t="n">
-        <v>16</v>
-      </c>
-      <c r="M99" t="n">
-        <v>72.72727272727273</v>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2000-05-22</t>
+        </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2000-05-22</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>0.057</v>
+      </c>
       <c r="P99" t="n">
-        <v>0.057</v>
+        <v>1.926</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.925999999046326</v>
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.343</v>
       </c>
     </row>
     <row r="100">
@@ -7113,7 +8010,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>12.4</v>
+        <v>12.17</v>
       </c>
       <c r="G100" t="n">
         <v>0.33</v>
@@ -7122,35 +8019,44 @@
         <v>2.65</v>
       </c>
       <c r="I100" t="n">
-        <v>0.026500002</v>
+        <v>65</v>
       </c>
       <c r="J100" t="n">
         <v>6</v>
       </c>
       <c r="K100" t="n">
+        <v>13</v>
+      </c>
+      <c r="L100" t="n">
         <v>20</v>
       </c>
-      <c r="L100" t="n">
-        <v>13</v>
-      </c>
-      <c r="M100" t="n">
-        <v>65</v>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>2002-07-15</t>
+        </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2002-07-15</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>0.33</v>
+      </c>
       <c r="P100" t="n">
-        <v>0.33</v>
+        <v>13.41</v>
       </c>
       <c r="Q100" t="n">
-        <v>13.40999984741211</v>
+        <v>0.09</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.168</v>
       </c>
     </row>
     <row r="101">
@@ -7180,7 +8086,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>16.31</v>
+        <v>15.57</v>
       </c>
       <c r="G101" t="n">
         <v>0.18</v>
@@ -7189,35 +8095,44 @@
         <v>1.15</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0115</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="J101" t="n">
         <v>3</v>
       </c>
       <c r="K101" t="n">
+        <v>11</v>
+      </c>
+      <c r="L101" t="n">
         <v>17</v>
       </c>
-      <c r="L101" t="n">
-        <v>11</v>
-      </c>
-      <c r="M101" t="n">
-        <v>64.70588235294117</v>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2005-12-12</t>
+        </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2005-12-12</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
           <t>2022-12-05</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>0.18</v>
+      </c>
       <c r="P101" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R101" t="n">
         <v>0.18</v>
       </c>
-      <c r="Q101" t="n">
-        <v>23.34000015258789</v>
+      <c r="S101" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.042</v>
       </c>
     </row>
     <row r="102">
@@ -7247,7 +8162,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>13.17</v>
+        <v>13</v>
       </c>
       <c r="G102" t="n">
         <v>0.14</v>
@@ -7256,35 +8171,44 @@
         <v>1.07</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0107</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="J102" t="n">
         <v>6</v>
       </c>
       <c r="K102" t="n">
+        <v>11</v>
+      </c>
+      <c r="L102" t="n">
         <v>17</v>
       </c>
-      <c r="L102" t="n">
-        <v>11</v>
-      </c>
-      <c r="M102" t="n">
-        <v>64.70588235294117</v>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>2005-07-18</t>
+        </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2005-07-18</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O102" t="n">
+        <v>0.14</v>
+      </c>
       <c r="P102" t="n">
-        <v>0.14</v>
+        <v>11.095</v>
       </c>
       <c r="Q102" t="n">
-        <v>11.09499931335449</v>
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.45115</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.143</v>
       </c>
     </row>
     <row r="103">
@@ -7314,7 +8238,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4.341</v>
+        <v>4.34</v>
       </c>
       <c r="G103" t="n">
         <v>0.23</v>
@@ -7323,35 +8247,44 @@
         <v>5.3</v>
       </c>
       <c r="I103" t="n">
-        <v>0.053000003</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="J103" t="n">
         <v>5</v>
       </c>
       <c r="K103" t="n">
+        <v>12</v>
+      </c>
+      <c r="L103" t="n">
         <v>19</v>
       </c>
-      <c r="L103" t="n">
-        <v>12</v>
-      </c>
-      <c r="M103" t="n">
-        <v>63.1578947368421</v>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>2003-05-19</t>
+        </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2003-05-19</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O103" t="n">
+        <v>0.23</v>
+      </c>
       <c r="P103" t="n">
-        <v>0.23</v>
+        <v>4.005</v>
       </c>
       <c r="Q103" t="n">
-        <v>4.005000114440918</v>
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3.388408</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.206</v>
       </c>
     </row>
     <row r="104">
@@ -7381,7 +8314,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>18.24</v>
+        <v>17.8</v>
       </c>
       <c r="G104" t="n">
         <v>0.18</v>
@@ -7390,35 +8323,44 @@
         <v>0.98</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0098</v>
+        <v>62.5</v>
       </c>
       <c r="J104" t="n">
         <v>8</v>
       </c>
       <c r="K104" t="n">
+        <v>10</v>
+      </c>
+      <c r="L104" t="n">
         <v>16</v>
       </c>
-      <c r="L104" t="n">
-        <v>10</v>
-      </c>
-      <c r="M104" t="n">
-        <v>62.5</v>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>2006-05-08</t>
+        </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2006-05-08</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>0.18</v>
+      </c>
       <c r="P104" t="n">
-        <v>0.18</v>
+        <v>19.06</v>
       </c>
       <c r="Q104" t="n">
-        <v>19.05999946594238</v>
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.321</v>
       </c>
     </row>
     <row r="105">
@@ -7448,7 +8390,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.07</v>
+        <v>2.105</v>
       </c>
       <c r="G105" t="n">
         <v>0.11</v>
@@ -7457,35 +8399,44 @@
         <v>5.16</v>
       </c>
       <c r="I105" t="n">
-        <v>0.051599998</v>
+        <v>59.25925925925925</v>
       </c>
       <c r="J105" t="n">
         <v>13</v>
       </c>
       <c r="K105" t="n">
+        <v>16</v>
+      </c>
+      <c r="L105" t="n">
         <v>27</v>
       </c>
-      <c r="L105" t="n">
-        <v>16</v>
-      </c>
-      <c r="M105" t="n">
-        <v>59.25925925925925</v>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>1995-05-18</t>
+        </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>1995-05-18</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>0.11</v>
+      </c>
       <c r="P105" t="n">
-        <v>0.11</v>
+        <v>1.866</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.865999937057495</v>
+        <v>0.06</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.148</v>
       </c>
     </row>
     <row r="106">
@@ -7515,7 +8466,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="G106" t="n">
         <v>0.18</v>
@@ -7524,35 +8475,44 @@
         <v>3.7</v>
       </c>
       <c r="I106" t="n">
-        <v>0.037</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="J106" t="n">
         <v>7</v>
       </c>
       <c r="K106" t="n">
+        <v>13</v>
+      </c>
+      <c r="L106" t="n">
         <v>22</v>
       </c>
-      <c r="L106" t="n">
-        <v>13</v>
-      </c>
-      <c r="M106" t="n">
-        <v>59.09090909090909</v>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>2000-07-10</t>
+        </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2000-07-10</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>0.18</v>
+      </c>
       <c r="P106" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R106" t="n">
         <v>0.18</v>
       </c>
-      <c r="Q106" t="n">
-        <v>5.640000343322754</v>
+      <c r="S106" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="107">
@@ -7582,7 +8542,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="G107" t="n">
         <v>0.07000000000000001</v>
@@ -7591,35 +8551,44 @@
         <v>2.7</v>
       </c>
       <c r="I107" t="n">
-        <v>0.027</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="J107" t="n">
         <v>3</v>
       </c>
       <c r="K107" t="n">
+        <v>8</v>
+      </c>
+      <c r="L107" t="n">
         <v>15</v>
       </c>
-      <c r="L107" t="n">
-        <v>8</v>
-      </c>
-      <c r="M107" t="n">
-        <v>53.33333333333334</v>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>2007-05-14</t>
+        </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2007-05-14</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
           <t>2023-07-03</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="P107" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="R107" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Q107" t="n">
-        <v>2.670000076293945</v>
+      <c r="S107" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.019</v>
       </c>
     </row>
     <row r="108">
@@ -7649,7 +8618,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.63</v>
+        <v>2.585</v>
       </c>
       <c r="G108" t="n">
         <v>0.05</v>
@@ -7658,35 +8627,44 @@
         <v>1.93</v>
       </c>
       <c r="I108" t="n">
-        <v>0.019299999</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="J108" t="n">
         <v>3</v>
       </c>
       <c r="K108" t="n">
+        <v>8</v>
+      </c>
+      <c r="L108" t="n">
         <v>15</v>
       </c>
-      <c r="L108" t="n">
-        <v>8</v>
-      </c>
-      <c r="M108" t="n">
-        <v>53.33333333333334</v>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>2007-05-21</t>
+        </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2007-05-21</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
           <t>2023-07-31</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.05</v>
+      </c>
       <c r="P108" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Q108" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q108" t="n">
-        <v>2.610000133514404</v>
+      <c r="R108" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.055</v>
       </c>
     </row>
     <row r="109">
@@ -7716,7 +8694,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.475</v>
+        <v>0.4755</v>
       </c>
       <c r="G109" t="n">
         <v>0.04</v>
@@ -7725,35 +8703,44 @@
         <v>8.08</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0808</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="J109" t="n">
         <v>5</v>
       </c>
       <c r="K109" t="n">
+        <v>10</v>
+      </c>
+      <c r="L109" t="n">
         <v>19</v>
       </c>
-      <c r="L109" t="n">
-        <v>10</v>
-      </c>
-      <c r="M109" t="n">
-        <v>52.63157894736842</v>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>2003-05-12</t>
+        </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2003-05-12</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>0.039</v>
+      </c>
       <c r="P109" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="R109" t="n">
         <v>0.039</v>
       </c>
-      <c r="Q109" t="n">
-        <v>0.5300000309944153</v>
+      <c r="S109" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.005</v>
       </c>
     </row>
     <row r="110">
@@ -7792,35 +8779,44 @@
         <v>3.47</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0347</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="J110" t="n">
         <v>9</v>
       </c>
       <c r="K110" t="n">
+        <v>14</v>
+      </c>
+      <c r="L110" t="n">
         <v>27</v>
       </c>
-      <c r="L110" t="n">
-        <v>14</v>
-      </c>
-      <c r="M110" t="n">
-        <v>51.85185185185185</v>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>1995-05-18</t>
+        </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>1995-05-18</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>0.1</v>
+      </c>
       <c r="P110" t="n">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.799999952316284</v>
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.3661957784813068</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.123</v>
       </c>
     </row>
     <row r="111">
@@ -7850,44 +8846,53 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>16.74</v>
+        <v>16.546</v>
       </c>
       <c r="G111" t="n">
         <v>1.34</v>
       </c>
       <c r="H111" t="n">
-        <v>8.02</v>
+        <v>8.01</v>
       </c>
       <c r="I111" t="n">
-        <v>0.08019999999999999</v>
+        <v>50</v>
       </c>
       <c r="J111" t="n">
         <v>3</v>
       </c>
       <c r="K111" t="n">
+        <v>11</v>
+      </c>
+      <c r="L111" t="n">
         <v>22</v>
       </c>
-      <c r="L111" t="n">
-        <v>11</v>
-      </c>
-      <c r="M111" t="n">
-        <v>50</v>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>2000-06-19</t>
+        </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2000-06-19</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>1.34</v>
+      </c>
       <c r="P111" t="n">
-        <v>1.34</v>
+        <v>14.604</v>
       </c>
       <c r="Q111" t="n">
-        <v>14.60400009155273</v>
+        <v>0.0003202032774354</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.569</v>
       </c>
     </row>
     <row r="112">
@@ -7917,7 +8922,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="G112" t="n">
         <v>0.24</v>
@@ -7926,35 +8931,44 @@
         <v>7.41</v>
       </c>
       <c r="I112" t="n">
-        <v>0.074099995</v>
+        <v>50</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
       </c>
       <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
         <v>4</v>
       </c>
-      <c r="L112" t="n">
-        <v>2</v>
-      </c>
-      <c r="M112" t="n">
-        <v>50</v>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>2018-05-07</t>
+        </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>2018-05-07</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
           <t>2023-05-08</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>0.24</v>
+      </c>
       <c r="P112" t="n">
+        <v>4.675</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R112" t="n">
         <v>0.24</v>
       </c>
-      <c r="Q112" t="n">
-        <v>4.675000190734863</v>
+      <c r="S112" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="113">
@@ -7984,7 +8998,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.89</v>
+        <v>0.912</v>
       </c>
       <c r="G113" t="n">
         <v>0.02</v>
@@ -7993,35 +9007,44 @@
         <v>2.09</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0209</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="J113" t="n">
         <v>3</v>
       </c>
       <c r="K113" t="n">
+        <v>11</v>
+      </c>
+      <c r="L113" t="n">
         <v>23</v>
       </c>
-      <c r="L113" t="n">
-        <v>11</v>
-      </c>
-      <c r="M113" t="n">
-        <v>47.82608695652174</v>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>1999-06-07</t>
+        </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>1999-06-07</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
           <t>2023-06-05</t>
         </is>
       </c>
+      <c r="O113" t="n">
+        <v>0.01885</v>
+      </c>
       <c r="P113" t="n">
-        <v>0.01885</v>
+        <v>0.921</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.921149969100952</v>
+        <v>5.164568990894865e-05</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.06455711238618581</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.017</v>
       </c>
     </row>
     <row r="114">
@@ -8051,7 +9074,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.695</v>
+        <v>0.7</v>
       </c>
       <c r="G114" t="n">
         <v>0.06</v>
@@ -8060,35 +9083,44 @@
         <v>8.57</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0857</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="J114" t="n">
         <v>4</v>
       </c>
       <c r="K114" t="n">
+        <v>10</v>
+      </c>
+      <c r="L114" t="n">
         <v>21</v>
       </c>
-      <c r="L114" t="n">
-        <v>10</v>
-      </c>
-      <c r="M114" t="n">
-        <v>47.61904761904761</v>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>2001-05-21</t>
+        </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>2001-05-21</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O114" t="n">
+        <v>0.06</v>
+      </c>
       <c r="P114" t="n">
-        <v>0.06</v>
+        <v>0.726</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.7260000109672546</v>
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.374134</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.135</v>
       </c>
     </row>
     <row r="115">
@@ -8118,7 +9150,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.218</v>
+        <v>1.225</v>
       </c>
       <c r="G115" t="n">
         <v>0.19</v>
@@ -8127,35 +9159,44 @@
         <v>15.56</v>
       </c>
       <c r="I115" t="n">
-        <v>0.15560001</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="J115" t="n">
         <v>4</v>
       </c>
       <c r="K115" t="n">
+        <v>7</v>
+      </c>
+      <c r="L115" t="n">
         <v>15</v>
       </c>
-      <c r="L115" t="n">
-        <v>7</v>
-      </c>
-      <c r="M115" t="n">
-        <v>46.66666666666666</v>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>2007-05-07</t>
+        </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2007-05-07</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>0.19</v>
+      </c>
       <c r="P115" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R115" t="n">
         <v>0.19</v>
       </c>
-      <c r="Q115" t="n">
-        <v>1.075500011444092</v>
+      <c r="S115" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="116">
@@ -8185,44 +9226,53 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.206</v>
+        <v>2.202</v>
       </c>
       <c r="G116" t="n">
         <v>0.06</v>
       </c>
       <c r="H116" t="n">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0273</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
       </c>
       <c r="K116" t="n">
+        <v>2</v>
+      </c>
+      <c r="L116" t="n">
         <v>6</v>
       </c>
-      <c r="L116" t="n">
-        <v>2</v>
-      </c>
-      <c r="M116" t="n">
-        <v>33.33333333333333</v>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>2016-06-06</t>
+        </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2016-06-06</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
           <t>2023-06-19</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>0.06</v>
+      </c>
       <c r="P116" t="n">
-        <v>0.06</v>
+        <v>2.412</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.411999940872192</v>
+        <v>0.04</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.141395</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.053</v>
       </c>
     </row>
     <row r="117">
@@ -8261,35 +9311,44 @@
         <v>20.07</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2007</v>
+        <v>31.81818181818182</v>
       </c>
       <c r="J117" t="n">
         <v>4</v>
       </c>
       <c r="K117" t="n">
+        <v>7</v>
+      </c>
+      <c r="L117" t="n">
         <v>22</v>
       </c>
-      <c r="L117" t="n">
-        <v>7</v>
-      </c>
-      <c r="M117" t="n">
-        <v>31.81818181818182</v>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>2000-05-22</t>
+        </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>2000-05-22</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
           <t>2023-07-03</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>0.1184</v>
+      </c>
       <c r="P117" t="n">
-        <v>0.1184</v>
+        <v>2.412</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.411600112915039</v>
+        <v>0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>14.292902</v>
+      </c>
+      <c r="S117" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T117" t="n">
+        <v>4.782</v>
       </c>
     </row>
     <row r="118">
@@ -8319,7 +9378,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>5.42</v>
+        <v>5.38</v>
       </c>
       <c r="G118" t="n">
         <v>0.38</v>
@@ -8328,41 +9387,50 @@
         <v>7.04</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0704</v>
+        <v>25</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
       </c>
       <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
         <v>4</v>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="n">
-        <v>25</v>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>2018-07-09</t>
+        </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2018-07-09</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
           <t>2021-06-21</t>
         </is>
       </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
       <c r="P118" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="Q118" t="n">
         <v>0</v>
       </c>
-      <c r="Q118" t="n">
-        <v>6.119999885559082</v>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>D'Amico</t>
+          <t>D'amico</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8386,44 +9454,53 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4.122</v>
+        <v>4.14</v>
       </c>
       <c r="G119" t="n">
         <v>0.16</v>
       </c>
       <c r="H119" t="n">
-        <v>3.95</v>
+        <v>4.04</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0395</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
       </c>
       <c r="K119" t="n">
+        <v>3</v>
+      </c>
+      <c r="L119" t="n">
         <v>14</v>
       </c>
-      <c r="L119" t="n">
-        <v>3</v>
-      </c>
-      <c r="M119" t="n">
-        <v>21.42857142857143</v>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>2008-05-19</t>
+        </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2008-05-19</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
           <t>2023-06-19</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>0.018</v>
+      </c>
       <c r="P119" t="n">
-        <v>0.018</v>
+        <v>3.82</v>
       </c>
       <c r="Q119" t="n">
-        <v>3.819999933242798</v>
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.189482</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0.075</v>
       </c>
     </row>
     <row r="120">
@@ -8459,38 +9536,47 @@
         <v>0.02</v>
       </c>
       <c r="H120" t="n">
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0348</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
       </c>
       <c r="K120" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" t="n">
         <v>21</v>
       </c>
-      <c r="L120" t="n">
-        <v>2</v>
-      </c>
-      <c r="M120" t="n">
-        <v>9.523809523809524</v>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>2001-12-27</t>
+        </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2001-12-27</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
           <t>2023-06-05</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>0.07199999999999999</v>
+      </c>
       <c r="P120" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.706</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.706000030040741</v>
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="121">
@@ -8520,7 +9606,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>7.65</v>
+        <v>7.59</v>
       </c>
       <c r="G121" t="n">
         <v>0.27</v>
@@ -8529,36 +9615,43 @@
         <v>3.6</v>
       </c>
       <c r="I121" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
       </c>
       <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
         <v>2022</v>
       </c>
-      <c r="L121" t="n">
-        <v>0</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0</v>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>2023-05-02</t>
+        </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
           <t>2023-05-02</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>2023-05-02</t>
-        </is>
+      <c r="O121" t="n">
+        <v>0.272</v>
       </c>
       <c r="P121" t="n">
+        <v>8.378</v>
+      </c>
+      <c r="Q121" t="n">
         <v>0.272</v>
       </c>
-      <c r="Q121" t="n">
-        <v>8.377999305725098</v>
-      </c>
+      <c r="R121" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="T121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8596,36 +9689,43 @@
         <v>3.53</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0353</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
       </c>
       <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
         <v>2022</v>
       </c>
-      <c r="L122" t="n">
-        <v>0</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0</v>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>2023-05-08</t>
-        </is>
+      <c r="O122" t="n">
+        <v>0.13</v>
       </c>
       <c r="P122" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q122" t="n">
         <v>0.13</v>
       </c>
-      <c r="Q122" t="n">
-        <v>3.610000133514404</v>
-      </c>
+      <c r="R122" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8654,45 +9754,52 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>6.13</v>
+        <v>6.08</v>
       </c>
       <c r="G123" t="n">
         <v>0.18</v>
       </c>
       <c r="H123" t="n">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="I123" t="n">
-        <v>0.028800001</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
       </c>
       <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
         <v>2022</v>
       </c>
-      <c r="L123" t="n">
-        <v>0</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0</v>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>2023-05-22</t>
-        </is>
+      <c r="O123" t="n">
+        <v>0.18</v>
       </c>
       <c r="P123" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="Q123" t="n">
         <v>0.18</v>
       </c>
-      <c r="Q123" t="n">
-        <v>6.230000019073486</v>
-      </c>
+      <c r="R123" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8721,7 +9828,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>13.96</v>
+        <v>13.9</v>
       </c>
       <c r="G124" t="n">
         <v>0.17</v>
@@ -8730,36 +9837,43 @@
         <v>1.19</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
       </c>
       <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
         <v>2022</v>
       </c>
-      <c r="L124" t="n">
-        <v>0</v>
-      </c>
-      <c r="M124" t="n">
-        <v>0</v>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>2023-05-08</t>
-        </is>
+      <c r="O124" t="n">
+        <v>0.16622</v>
       </c>
       <c r="P124" t="n">
+        <v>15.854</v>
+      </c>
+      <c r="Q124" t="n">
         <v>0.16622</v>
       </c>
-      <c r="Q124" t="n">
-        <v>15.85377979278564</v>
-      </c>
+      <c r="R124" t="n">
+        <v>0.16622</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="T124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8788,7 +9902,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>17.68</v>
+        <v>17.47</v>
       </c>
       <c r="G125" t="n">
         <v>0.12</v>
@@ -8797,36 +9911,43 @@
         <v>0.68</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
         <v>2022</v>
       </c>
-      <c r="L125" t="n">
-        <v>0</v>
-      </c>
-      <c r="M125" t="n">
-        <v>0</v>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>2023-05-22</t>
+        </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>2023-05-22</t>
-        </is>
+      <c r="O125" t="n">
+        <v>0.12</v>
       </c>
       <c r="P125" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="Q125" t="n">
         <v>0.12</v>
       </c>
-      <c r="Q125" t="n">
-        <v>18.72000122070312</v>
-      </c>
+      <c r="R125" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8855,7 +9976,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.59</v>
+        <v>0.586</v>
       </c>
       <c r="G126" t="n">
         <v>0.01</v>
@@ -8864,36 +9985,43 @@
         <v>1.53</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0153</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
         <v>14</v>
       </c>
-      <c r="L126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>2008-10-06</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>2008-10-06</t>
+        </is>
+      </c>
+      <c r="O126" t="n">
         <v>0</v>
       </c>
-      <c r="M126" t="n">
+      <c r="P126" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="Q126" t="n">
         <v>0</v>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>2008-10-06</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>2008-10-06</t>
-        </is>
-      </c>
-      <c r="P126" t="n">
+      <c r="R126" t="n">
         <v>0</v>
       </c>
-      <c r="Q126" t="n">
-        <v>2.158381938934326</v>
-      </c>
+      <c r="S126" t="n">
+        <v>0</v>
+      </c>
+      <c r="T126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8922,16 +10050,16 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.4618</v>
+        <v>0.4564</v>
       </c>
       <c r="G127" t="n">
         <v>0.05</v>
       </c>
       <c r="H127" t="n">
-        <v>10.67</v>
+        <v>10.69</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1067</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -8942,24 +10070,33 @@
       <c r="L127" t="n">
         <v>0</v>
       </c>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="O127" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T127" t="n">
         <v>0</v>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>2022-09-19</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>2023-07-24</t>
-        </is>
-      </c>
-      <c r="P127" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0.4605000019073486</v>
       </c>
     </row>
     <row r="128">
@@ -8989,16 +10126,16 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>7.015</v>
+        <v>6.96</v>
       </c>
       <c r="G128" t="n">
         <v>0.13</v>
       </c>
       <c r="H128" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="I128" t="n">
-        <v>0.018099999</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -9009,24 +10146,33 @@
       <c r="L128" t="n">
         <v>0</v>
       </c>
-      <c r="M128" t="n">
-        <v>0</v>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
           <t>2023-05-22</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>0.13</v>
+      </c>
       <c r="P128" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="Q128" t="n">
         <v>0.13</v>
       </c>
-      <c r="Q128" t="n">
-        <v>9.84999942779541</v>
+      <c r="R128" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.007</v>
       </c>
     </row>
   </sheetData>
